--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REFERENCES\VLU-SENIOR.SEMES1\AUTE\Project Manual TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9625F2-F763-428E-A565-A527ACD65AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83E338-0C55-4710-AA19-100F875F754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="4" activeTab="5" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
@@ -1828,48 +1828,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1887,6 +1845,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1927,6 +1888,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1936,6 +1906,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1944,6 +1917,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1957,8 +1936,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1968,6 +1953,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1983,6 +1980,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2867,28 +2867,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -2897,11 +2897,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2915,11 +2915,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2933,11 +2933,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2951,11 +2951,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2969,11 +2969,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2987,11 +2987,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44475</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3005,9 +3005,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3271,13 +3271,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -3321,11 +3321,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -3338,68 +3338,68 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -3412,84 +3412,84 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68" t="s">
         <v>181</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -3502,98 +3502,98 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="68" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="56" t="s">
+      <c r="L33" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -3606,98 +3606,98 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="56" t="s">
+      <c r="I38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="56" t="s">
+      <c r="J38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="56" t="s">
+      <c r="K38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="56" t="s">
+      <c r="L38" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -3710,98 +3710,98 @@
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="62"/>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="59" t="s">
+      <c r="H43" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="56" t="s">
+      <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="56" t="s">
+      <c r="L43" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -3814,98 +3814,98 @@
       <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="62"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="56" t="s">
+      <c r="J48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="56" t="s">
+      <c r="K48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="L48" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A52" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -3918,98 +3918,98 @@
       <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="65" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="56" t="s">
+      <c r="I53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="56" t="s">
+      <c r="J53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="56" t="s">
+      <c r="K53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="56" t="s">
+      <c r="L53" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="66"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="67"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -4022,98 +4022,98 @@
       <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="49.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="62"/>
-      <c r="B58" s="65" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="72" t="s">
+      <c r="E58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="59" t="s">
+      <c r="H58" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="56" t="s">
+      <c r="I58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="56" t="s">
+      <c r="J58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="56" t="s">
+      <c r="K58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="56" t="s">
+      <c r="L58" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="66"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="66"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="67"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -4126,98 +4126,98 @@
       <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A63" s="62"/>
-      <c r="B63" s="65" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="56" t="s">
+      <c r="I63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="56" t="s">
+      <c r="J63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="56" t="s">
+      <c r="K63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="56" t="s">
+      <c r="L63" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="66"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
     </row>
     <row r="65" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="66"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
     </row>
     <row r="66" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="67"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="71"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4230,88 +4230,88 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A68" s="62"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="72" t="s">
+      <c r="E68" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="56" t="s">
+      <c r="F68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="59" t="s">
+      <c r="H68" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="56" t="s">
+      <c r="J68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="56" t="s">
+      <c r="K68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="56" t="s">
+      <c r="L68" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="63"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
     </row>
     <row r="70" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A70" s="63"/>
-      <c r="B70" s="66"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
     </row>
     <row r="71" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A71" s="64"/>
-      <c r="B71" s="67"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="71"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:47" collapsed="1">
       <c r="A72" s="29"/>
@@ -12885,28 +12885,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -12915,11 +12915,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -12933,11 +12933,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -12951,11 +12951,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -12969,11 +12969,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -12987,11 +12987,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -13005,11 +13005,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44475</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -13023,9 +13023,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -13289,13 +13289,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -13339,11 +13339,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -13356,128 +13356,128 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="55.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="56" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="56" t="s">
+      <c r="L24" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -13490,118 +13490,118 @@
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="56" t="s">
+      <c r="E31" s="59"/>
+      <c r="F31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="56" t="s">
+      <c r="L31" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="90"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="90"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="67"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:47" collapsed="1">
       <c r="A37" s="29"/>
@@ -22079,28 +22079,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -22109,11 +22109,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -22127,11 +22127,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -22145,11 +22145,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -22163,11 +22163,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -22181,11 +22181,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -22199,11 +22199,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -22217,9 +22217,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -22483,13 +22483,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -22533,11 +22533,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -22550,162 +22550,162 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="48" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -22718,84 +22718,84 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -22808,84 +22808,84 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="52.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -22898,84 +22898,84 @@
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="54.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="44" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -22988,84 +22988,84 @@
       <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="56.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="91"/>
+      <c r="B48" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
     </row>
     <row r="51" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="92"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A52" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -23078,84 +23078,84 @@
       <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="44" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="92"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="92"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -23168,84 +23168,84 @@
       <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="91"/>
+      <c r="B58" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="92"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="92"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -23258,84 +23258,84 @@
       <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="51.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A63" s="92"/>
-      <c r="B63" s="44" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A64" s="92"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
     </row>
     <row r="65" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="45"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -23348,68 +23348,68 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A68" s="92"/>
-      <c r="B68" s="44" t="s">
+      <c r="A68" s="91"/>
+      <c r="B68" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="92"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A70" s="92"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A71" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -23422,52 +23422,52 @@
       <c r="L71" s="33"/>
     </row>
     <row r="72" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A72" s="92"/>
-      <c r="B72" s="44" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="81" t="s">
+      <c r="E72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
     </row>
     <row r="73" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A73" s="92"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A74" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -23480,84 +23480,84 @@
       <c r="L74" s="33"/>
     </row>
     <row r="75" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A75" s="92"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="91"/>
+      <c r="B75" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="72" t="s">
+      <c r="E75" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
     </row>
     <row r="76" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A76" s="92"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
     </row>
     <row r="77" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A77" s="92"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A78" s="92"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A79" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -23570,84 +23570,84 @@
       <c r="L79" s="33"/>
     </row>
     <row r="80" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="44" t="s">
+      <c r="A80" s="91"/>
+      <c r="B80" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
     </row>
     <row r="81" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A81" s="92"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="68"/>
       <c r="C81" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="45"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A82" s="92"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="68"/>
       <c r="C82" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
     </row>
     <row r="83" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A83" s="92"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="68"/>
       <c r="C83" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A84" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -23660,84 +23660,84 @@
       <c r="L84" s="33"/>
     </row>
     <row r="85" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A85" s="92"/>
-      <c r="B85" s="44" t="s">
+      <c r="A85" s="91"/>
+      <c r="B85" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E85" s="72" t="s">
+      <c r="E85" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
     </row>
     <row r="86" spans="1:12" s="28" customFormat="1" ht="40.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A86" s="92"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
-      <c r="K86" s="76"/>
-      <c r="L86" s="76"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
     </row>
     <row r="87" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A87" s="92"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="68"/>
       <c r="C87" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="76"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A88" s="92"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="68"/>
       <c r="C88" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
     </row>
     <row r="89" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A89" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="49"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -23750,84 +23750,84 @@
       <c r="L89" s="33"/>
     </row>
     <row r="90" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A90" s="92"/>
-      <c r="B90" s="44" t="s">
+      <c r="A90" s="91"/>
+      <c r="B90" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D90" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
     </row>
     <row r="91" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="68"/>
       <c r="C91" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="76"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A92" s="92"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="79"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
     </row>
     <row r="93" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A93" s="92"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="45"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="67"/>
     </row>
     <row r="94" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A94" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="49"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -23840,74 +23840,74 @@
       <c r="L94" s="33"/>
     </row>
     <row r="95" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A95" s="92"/>
-      <c r="B95" s="44" t="s">
+      <c r="A95" s="91"/>
+      <c r="B95" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="72" t="s">
+      <c r="E95" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="78"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
     </row>
     <row r="96" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A96" s="92"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="79"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="76"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
     </row>
     <row r="97" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A97" s="92"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="68"/>
       <c r="C97" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="45"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="76"/>
-      <c r="L97" s="76"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
     </row>
     <row r="98" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A98" s="92"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="68"/>
       <c r="C98" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="80"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
     </row>
     <row r="99" spans="1:12" collapsed="1">
       <c r="A99" s="29"/>
@@ -25702,28 +25702,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -25732,11 +25732,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -25750,11 +25750,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -25768,11 +25768,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -25786,11 +25786,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -25804,11 +25804,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -25822,11 +25822,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -25840,9 +25840,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -26106,13 +26106,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -26156,11 +26156,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -26173,82 +26173,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -26261,98 +26261,98 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" s="41" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -26365,98 +26365,98 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -26469,88 +26469,88 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="42" t="s">
+      <c r="J38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="1:47" collapsed="1">
       <c r="A42" s="29"/>
@@ -32210,28 +32210,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -32240,11 +32240,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -32258,11 +32258,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -32276,11 +32276,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -32294,11 +32294,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -32312,11 +32312,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -32330,11 +32330,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -32348,9 +32348,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -32614,13 +32614,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:47" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -32664,11 +32664,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -32681,72 +32681,72 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="28" customFormat="1" ht="68.400000000000006" customHeight="1" outlineLevel="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:47">
       <c r="A27" s="29"/>
@@ -38341,7 +38341,7 @@
   </sheetPr>
   <dimension ref="A1:AU143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -38370,28 +38370,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -38400,11 +38400,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -38418,11 +38418,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -38436,11 +38436,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -38454,11 +38454,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -38472,11 +38472,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -38490,11 +38490,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -38508,9 +38508,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -38774,13 +38774,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -38824,11 +38824,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -38841,82 +38841,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -38929,82 +38929,82 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -39017,72 +39017,72 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="72"/>
+      <c r="B32" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="42" t="s">
+      <c r="J32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="42" t="s">
+      <c r="L32" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:47">
       <c r="A35" s="29"/>
@@ -44505,8 +44505,8 @@
   </sheetPr>
   <dimension ref="A1:AU135"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -44534,28 +44534,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -44564,11 +44564,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -44582,11 +44582,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -44600,11 +44600,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" t="s">
         <v>179</v>
       </c>
@@ -44620,11 +44620,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -44638,11 +44638,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -44656,11 +44656,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -44674,9 +44674,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -44940,13 +44940,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:47" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -44990,9 +44990,9 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -45005,62 +45005,62 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="42" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:47">
       <c r="A27" s="29"/>

--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REFERENCES\VLU-SENIOR.SEMES1\AUTE\Project Manual TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83E338-0C55-4710-AA19-100F875F754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843894E7-B795-4F33-9ACB-00D8452C8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="4" activeTab="5" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="4" activeTab="6" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Func- &lt;&lt;Log in&gt;&gt;" sheetId="2" r:id="rId1"/>
     <sheet name="Func- &lt;&lt;Log out&gt;&gt;" sheetId="7" r:id="rId2"/>
     <sheet name="Func- &lt;&lt;Sign up&gt;&gt;" sheetId="3" r:id="rId3"/>
     <sheet name="Func- &lt;&lt;Homepage nav&gt;&gt;" sheetId="4" r:id="rId4"/>
-    <sheet name="Func- &lt;&lt;View new product&gt;&gt;" sheetId="9" r:id="rId5"/>
+    <sheet name="Func- &lt;&lt;View new pro detail&gt;&gt;" sheetId="9" r:id="rId5"/>
     <sheet name="Func- &lt;&lt;Search pro by name&gt;&gt;" sheetId="10" r:id="rId6"/>
     <sheet name="Func- &lt;&lt;Add to cart&gt;&gt;" sheetId="12" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Func- &lt;&lt;Log out&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Func- &lt;&lt;Search pro by name&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Func- &lt;&lt;Sign up&gt;&gt;'!$A$22:$L$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Func- &lt;&lt;View new product&gt;&gt;'!$A$22:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Func- &lt;&lt;View new pro detail&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
@@ -740,7 +740,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="220">
   <si>
     <t>Func - Module</t>
   </si>
@@ -1404,6 +1404,163 @@
   <si>
     <t>Search product by name</t>
   </si>
+  <si>
+    <t>2. Click vào một sản phẩm từ trang chủ</t>
+  </si>
+  <si>
+    <t>3. Click vào nút Thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>4. Click vào nút Xem giỏ hàng được popped up</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user add to cart thành công khi thêm 1 sản phẩm vào giỏ hàng với số lượng 1</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user add to cart thành công khi thêm 1 sản phẩm vào giỏ hàng với số lượng nhiều hơn 1</t>
+  </si>
+  <si>
+    <t>5. Kiểm tra các thông tin có hợp lệ tại trang Giỏ hàng của bạn</t>
+  </si>
+  <si>
+    <t>1&lt;=${toTalProduct}&lt;=100</t>
+  </si>
+  <si>
+    <t>6. Click vào nút Thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user add to cart thành công khi thêm nhiều hơn 1 sản phẩm khác nhau vào giỏ hàng với số lượng 1 cho mỗi sản phẩm</t>
+  </si>
+  <si>
+    <t>7. Nếu muốn thêm nhiều hơn 2 sản phẩm có thể lặp lại step 4, 5, 6</t>
+  </si>
+  <si>
+    <t>5. Click vào một sản phẩm khác từ trang chủ</t>
+  </si>
+  <si>
+    <t>8. Click vào nút Xem giỏ hàng được popped up</t>
+  </si>
+  <si>
+    <t>9. Kiểm tra các thông tin có hợp lệ tại trang Giỏ hàng của bạn</t>
+  </si>
+  <si>
+    <t>1&lt;=${toTalProduct}&lt;=5</t>
+  </si>
+  <si>
+    <t>4. Click vào nút Tiếp tục mua hàng để quay về trang chủ</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user xóa sản phẩm khỏi Giỏ hàng thành công sau khi Add to cart</t>
+  </si>
+  <si>
+    <t>5. Xóa hết các sản phẩm có trong Giỏ hàng</t>
+  </si>
+  <si>
+    <r>
+      <t>- Hệ thống navigate user vào trang Giỏ hàng của bạn khi click vào nút Xem giỏ hàng từ pop up theo URL: ""https://zombieclothingstore.com/cart"
+- Hệ thống hiển thị heading page là Giỏ hàng của bạn
+- Hệ thống hiển thị Có ${totalProduct}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trong giỏ hàng
+- Hệ thống hiển thị tổng tiền bằng tổng giá tri của các sản phẩm được thêm vào
+- Add to cart thành công!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Hệ thống navigate user vào trang Giỏ hàng của bạn theo URL: ""https://zombieclothingstore.com/cart"
+- Hệ thống hiển thị heading page là Giỏ hàng của bạn
+- Hệ thống hiển thị Có ${totalProduct}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trong giỏ hàng
+- Hệ thống hiển thị tổng tiền bằng tổng giá tri của các sản phẩm được thêm vào
+- Add to cart thành công!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Hệ thống navigate user vào trang Giỏ hàng của bạn theo URL: ""https://zombieclothingstore.com/cart"
+- Hệ thống hiển thị heading page là Giỏ hàng của bạn
+- Hệ thống hiển thị Có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trong giỏ hàng
+- Hệ thống hiển thị tổng tiền bằng giá tri của sản phẩm được thêm vào
+- Add to cart thành công!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Hệ thống navigate user vào trang Giỏ hàng của bạn theo URL: "https://zombieclothingstore.com/cart"
+- Hệ thống hiển thị Có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0 sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trong giỏ hàng
+- Hệ thống hiển thị Giỏ hàng của bạn đang trống tại box chứa các sản phẩm được thêm vào
+- Xóa sản phẩm khỏi giỏ hàng thành công!</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Kiểm tra lại các thông tin được hiển thị có hợp lệ khi Xóa sản phẩm khỏi Giỏ hàng</t>
+  </si>
 </sst>
 </file>
 
@@ -1709,7 +1866,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1983,6 +2140,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2838,7 +2998,7 @@
   </sheetPr>
   <dimension ref="A1:AU242"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -12856,7 +13016,7 @@
   </sheetPr>
   <dimension ref="A1:AU207"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -13355,7 +13515,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12" s="28" customFormat="1" ht="55.2" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:12" s="28" customFormat="1" ht="55.2" customHeight="1" outlineLevel="1">
       <c r="A24" s="49"/>
       <c r="B24" s="52" t="s">
         <v>98</v>
@@ -13389,7 +13549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:12" s="28" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A25" s="50"/>
       <c r="B25" s="53"/>
       <c r="C25" s="27" t="s">
@@ -13405,7 +13565,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:12" s="28" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A26" s="50"/>
       <c r="B26" s="53"/>
       <c r="C26" s="27" t="s">
@@ -13421,7 +13581,7 @@
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
     </row>
-    <row r="27" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:12" s="28" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A27" s="50"/>
       <c r="B27" s="53"/>
       <c r="C27" s="27" t="s">
@@ -13437,7 +13597,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A28" s="50"/>
       <c r="B28" s="53"/>
       <c r="C28" s="27" t="s">
@@ -13453,7 +13613,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
     </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:12" s="28" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A29" s="51"/>
       <c r="B29" s="54"/>
       <c r="C29" s="27" t="s">
@@ -13469,7 +13629,7 @@
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
@@ -13489,7 +13649,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A31" s="88"/>
       <c r="B31" s="52" t="s">
         <v>98</v>
@@ -13523,7 +13683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A32" s="89"/>
       <c r="B32" s="53"/>
       <c r="C32" s="27" t="s">
@@ -13539,7 +13699,7 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:47" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A33" s="89"/>
       <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
@@ -13555,7 +13715,7 @@
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:47" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A34" s="89"/>
       <c r="B34" s="53"/>
       <c r="C34" s="27" t="s">
@@ -13571,7 +13731,7 @@
       <c r="K34" s="43"/>
       <c r="L34" s="43"/>
     </row>
-    <row r="35" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:47" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A35" s="89"/>
       <c r="B35" s="53"/>
       <c r="C35" s="27" t="s">
@@ -13587,7 +13747,7 @@
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
     </row>
-    <row r="36" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:47" s="28" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
       <c r="A36" s="90"/>
       <c r="B36" s="54"/>
       <c r="C36" s="27" t="s">
@@ -13603,7 +13763,7 @@
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
     </row>
-    <row r="37" spans="1:47" collapsed="1">
+    <row r="37" spans="1:47">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -32182,7 +32342,7 @@
   <dimension ref="A1:AU139"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -38341,8 +38501,8 @@
   </sheetPr>
   <dimension ref="A1:AU143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -44503,10 +44663,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AU135"/>
+  <dimension ref="A1:AU141"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -44514,7 +44674,7 @@
     <col min="1" max="1" width="16.88671875" style="30" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" style="30" customWidth="1"/>
     <col min="3" max="3" width="34" style="30" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" style="30" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="30" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="30" customWidth="1"/>
     <col min="7" max="7" width="16" style="30" customWidth="1"/>
@@ -44718,7 +44878,7 @@
         <v>Build1</v>
       </c>
       <c r="B14" s="19">
-        <f t="shared" ref="B14:G14" si="0">COUNTIF($L$23:$L$48462,B13)</f>
+        <f t="shared" ref="B14:G14" si="0">COUNTIF($L$23:$L$48468,B13)</f>
         <v>0</v>
       </c>
       <c r="C14" s="19">
@@ -44753,7 +44913,7 @@
         <v>Build2</v>
       </c>
       <c r="B15" s="19">
-        <f t="shared" ref="B15:G15" si="1">COUNTIF($K$23:$K$48462,B13)</f>
+        <f t="shared" ref="B15:G15" si="1">COUNTIF($K$23:$K$48468,B13)</f>
         <v>0</v>
       </c>
       <c r="C15" s="19">
@@ -44788,7 +44948,7 @@
         <v>Build3</v>
       </c>
       <c r="B16" s="19">
-        <f t="shared" ref="B16:G16" si="2">COUNTIF($J$23:$J$48462,B13)</f>
+        <f t="shared" ref="B16:G16" si="2">COUNTIF($J$23:$J$48468,B13)</f>
         <v>0</v>
       </c>
       <c r="C16" s="19">
@@ -44817,33 +44977,33 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:47" s="13" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="18" t="str">
         <f>I22</f>
         <v>Build4</v>
       </c>
       <c r="B17" s="19">
-        <f>COUNTIF($I$23:$I$48462,B13)</f>
+        <f>COUNTIF($I$23:$I$48468,B13)</f>
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <f>COUNTIF($I$23:$I$48462,C16)</f>
+        <f>COUNTIF($I$23:$I$48468,C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="19">
-        <f>COUNTIF($I$23:$I$48462,D13)</f>
+        <f>COUNTIF($I$23:$I$48468,D13)</f>
         <v>0</v>
       </c>
       <c r="E17" s="19">
-        <f>COUNTIF($I$23:$I$48462,E13)</f>
+        <f>COUNTIF($I$23:$I$48468,E13)</f>
         <v>0</v>
       </c>
       <c r="F17" s="19">
-        <f>COUNTIF($I$23:$I$48462,F13)</f>
+        <f>COUNTIF($I$23:$I$48468,F13)</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>COUNTIF($I$23:$I$48462,G13)</f>
+        <f>COUNTIF($I$23:$I$48468,G13)</f>
         <v>0</v>
       </c>
       <c r="H17" s="20"/>
@@ -44852,13 +45012,13 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:47" s="13" customFormat="1" ht="22.5" customHeight="1">
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="18" t="str">
         <f>H22</f>
         <v>Build5</v>
       </c>
       <c r="B18" s="19">
-        <f t="shared" ref="B18:G18" si="3">COUNTIF($H$23:$H$48462,B13)</f>
+        <f t="shared" ref="B18:G18" si="3">COUNTIF($H$23:$H$48468,B13)</f>
         <v>0</v>
       </c>
       <c r="C18" s="19">
@@ -44871,7 +45031,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="3"/>
@@ -44887,7 +45047,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:47" s="13" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
@@ -44905,7 +45065,7 @@
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
@@ -44921,7 +45081,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:47" s="13" customFormat="1" ht="11.4">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="11.4">
       <c r="A20" s="23"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -44935,7 +45095,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:47" s="24" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1">
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -44948,7 +45108,7 @@
       <c r="K21" s="78"/>
       <c r="L21" s="78"/>
     </row>
-    <row r="22" spans="1:47" s="24" customFormat="1" ht="13.2">
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
         <v>16</v>
       </c>
@@ -44986,11 +45146,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:47" s="12" customFormat="1" ht="13.2">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="62" t="s">
+        <v>201</v>
+      </c>
       <c r="C23" s="63"/>
       <c r="D23" s="64"/>
       <c r="E23" s="31"/>
@@ -45004,1288 +45166,541 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A24" s="72"/>
       <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="93"/>
+      <c r="C24" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="94"/>
       <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="80" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
       <c r="A25" s="72"/>
       <c r="B25" s="68"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="27" t="s">
+        <v>198</v>
+      </c>
       <c r="D25" s="73"/>
-      <c r="E25" s="93"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-    </row>
-    <row r="26" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A26" s="72"/>
       <c r="B26" s="68"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="27" t="s">
+        <v>199</v>
+      </c>
       <c r="D26" s="73"/>
-      <c r="E26" s="93"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-    </row>
-    <row r="27" spans="1:47">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-    </row>
-    <row r="28" spans="1:47">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-    </row>
-    <row r="29" spans="1:47">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-    </row>
-    <row r="30" spans="1:47">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="29"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="29"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="29"/>
-    </row>
-    <row r="31" spans="1:47">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="29"/>
-      <c r="AS31" s="29"/>
-      <c r="AT31" s="29"/>
-      <c r="AU31" s="29"/>
-    </row>
-    <row r="32" spans="1:47">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="29"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="29"/>
-      <c r="AT32" s="29"/>
-      <c r="AU32" s="29"/>
-    </row>
-    <row r="33" spans="1:47">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
-      <c r="AM33" s="29"/>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="29"/>
-      <c r="AP33" s="29"/>
-      <c r="AQ33" s="29"/>
-      <c r="AR33" s="29"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="29"/>
-    </row>
-    <row r="34" spans="1:47">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="29"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="29"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="29"/>
-    </row>
-    <row r="35" spans="1:47">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="29"/>
-      <c r="AL35" s="29"/>
-      <c r="AM35" s="29"/>
-      <c r="AN35" s="29"/>
-      <c r="AO35" s="29"/>
-      <c r="AP35" s="29"/>
-      <c r="AQ35" s="29"/>
-      <c r="AR35" s="29"/>
-      <c r="AS35" s="29"/>
-      <c r="AT35" s="29"/>
-      <c r="AU35" s="29"/>
-    </row>
-    <row r="36" spans="1:47">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="29"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="29"/>
-      <c r="AT36" s="29"/>
-      <c r="AU36" s="29"/>
-    </row>
-    <row r="37" spans="1:47">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="29"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="29"/>
-      <c r="AT37" s="29"/>
-      <c r="AU37" s="29"/>
-    </row>
-    <row r="38" spans="1:47">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-    </row>
-    <row r="39" spans="1:47">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-    </row>
-    <row r="40" spans="1:47">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="29"/>
-      <c r="AP40" s="29"/>
-      <c r="AQ40" s="29"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="29"/>
-      <c r="AT40" s="29"/>
-      <c r="AU40" s="29"/>
-    </row>
-    <row r="41" spans="1:47">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="29"/>
-      <c r="AL41" s="29"/>
-      <c r="AM41" s="29"/>
-      <c r="AN41" s="29"/>
-      <c r="AO41" s="29"/>
-      <c r="AP41" s="29"/>
-      <c r="AQ41" s="29"/>
-      <c r="AR41" s="29"/>
-      <c r="AS41" s="29"/>
-      <c r="AT41" s="29"/>
-      <c r="AU41" s="29"/>
-    </row>
-    <row r="42" spans="1:47">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="29"/>
-      <c r="AL42" s="29"/>
-      <c r="AM42" s="29"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
-      <c r="AP42" s="29"/>
-      <c r="AQ42" s="29"/>
-      <c r="AR42" s="29"/>
-      <c r="AS42" s="29"/>
-      <c r="AT42" s="29"/>
-      <c r="AU42" s="29"/>
-    </row>
-    <row r="43" spans="1:47">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="29"/>
-      <c r="AL43" s="29"/>
-      <c r="AM43" s="29"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
-      <c r="AP43" s="29"/>
-      <c r="AQ43" s="29"/>
-      <c r="AR43" s="29"/>
-      <c r="AS43" s="29"/>
-      <c r="AT43" s="29"/>
-      <c r="AU43" s="29"/>
-    </row>
-    <row r="44" spans="1:47">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="29"/>
-      <c r="AL44" s="29"/>
-      <c r="AM44" s="29"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="29"/>
-      <c r="AP44" s="29"/>
-      <c r="AQ44" s="29"/>
-      <c r="AR44" s="29"/>
-      <c r="AS44" s="29"/>
-      <c r="AT44" s="29"/>
-      <c r="AU44" s="29"/>
-    </row>
-    <row r="45" spans="1:47">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="29"/>
-      <c r="AL45" s="29"/>
-      <c r="AM45" s="29"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
-      <c r="AP45" s="29"/>
-      <c r="AQ45" s="29"/>
-      <c r="AR45" s="29"/>
-      <c r="AS45" s="29"/>
-      <c r="AT45" s="29"/>
-      <c r="AU45" s="29"/>
-    </row>
-    <row r="46" spans="1:47">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="29"/>
-      <c r="AR46" s="29"/>
-      <c r="AS46" s="29"/>
-      <c r="AT46" s="29"/>
-      <c r="AU46" s="29"/>
-    </row>
-    <row r="47" spans="1:47">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29"/>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29"/>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="29"/>
-      <c r="AT47" s="29"/>
-      <c r="AU47" s="29"/>
-    </row>
-    <row r="48" spans="1:47">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-      <c r="AL48" s="29"/>
-      <c r="AM48" s="29"/>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="29"/>
-      <c r="AP48" s="29"/>
-      <c r="AQ48" s="29"/>
-      <c r="AR48" s="29"/>
-      <c r="AS48" s="29"/>
-      <c r="AT48" s="29"/>
-      <c r="AU48" s="29"/>
-    </row>
-    <row r="49" spans="1:47">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="29"/>
-      <c r="AL49" s="29"/>
-      <c r="AM49" s="29"/>
-      <c r="AN49" s="29"/>
-      <c r="AO49" s="29"/>
-      <c r="AP49" s="29"/>
-      <c r="AQ49" s="29"/>
-      <c r="AR49" s="29"/>
-      <c r="AS49" s="29"/>
-      <c r="AT49" s="29"/>
-      <c r="AU49" s="29"/>
-    </row>
-    <row r="50" spans="1:47">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29"/>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="29"/>
-      <c r="AO50" s="29"/>
-      <c r="AP50" s="29"/>
-      <c r="AQ50" s="29"/>
-      <c r="AR50" s="29"/>
-      <c r="AS50" s="29"/>
-      <c r="AT50" s="29"/>
-      <c r="AU50" s="29"/>
-    </row>
-    <row r="51" spans="1:47">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="29"/>
-      <c r="AL51" s="29"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="29"/>
-      <c r="AQ51" s="29"/>
-      <c r="AR51" s="29"/>
-      <c r="AS51" s="29"/>
-      <c r="AT51" s="29"/>
-      <c r="AU51" s="29"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A27" s="72"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+    </row>
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A30" s="72"/>
+      <c r="B30" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A31" s="72"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+    </row>
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A32" s="72"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+    </row>
+    <row r="33" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A33" s="72"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="73"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A35" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A36" s="72"/>
+      <c r="B36" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A37" s="72"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+    </row>
+    <row r="38" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A38" s="72"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+    </row>
+    <row r="39" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A39" s="72"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+    </row>
+    <row r="40" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A40" s="72"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+    </row>
+    <row r="41" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A41" s="72"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+    </row>
+    <row r="42" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+    </row>
+    <row r="43" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A43" s="72"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+    </row>
+    <row r="44" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A44" s="72"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A45" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A46" s="72"/>
+      <c r="B46" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A47" s="72"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+    </row>
+    <row r="48" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A48" s="72"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+    </row>
+    <row r="49" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A49" s="72"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="73"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+    </row>
+    <row r="50" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A50" s="72"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+    </row>
+    <row r="51" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A51" s="72"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
     </row>
     <row r="52" spans="1:47">
       <c r="A52" s="29"/>
@@ -50403,10 +49818,303 @@
       <c r="AT135" s="29"/>
       <c r="AU135" s="29"/>
     </row>
+    <row r="136" spans="1:47">
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="29"/>
+      <c r="R136" s="29"/>
+      <c r="S136" s="29"/>
+      <c r="T136" s="29"/>
+      <c r="U136" s="29"/>
+      <c r="V136" s="29"/>
+      <c r="W136" s="29"/>
+      <c r="X136" s="29"/>
+      <c r="Y136" s="29"/>
+      <c r="Z136" s="29"/>
+      <c r="AA136" s="29"/>
+      <c r="AB136" s="29"/>
+      <c r="AC136" s="29"/>
+      <c r="AD136" s="29"/>
+      <c r="AE136" s="29"/>
+      <c r="AF136" s="29"/>
+      <c r="AG136" s="29"/>
+      <c r="AH136" s="29"/>
+      <c r="AI136" s="29"/>
+      <c r="AJ136" s="29"/>
+      <c r="AK136" s="29"/>
+      <c r="AL136" s="29"/>
+      <c r="AM136" s="29"/>
+      <c r="AN136" s="29"/>
+      <c r="AO136" s="29"/>
+      <c r="AP136" s="29"/>
+      <c r="AQ136" s="29"/>
+      <c r="AR136" s="29"/>
+      <c r="AS136" s="29"/>
+      <c r="AT136" s="29"/>
+      <c r="AU136" s="29"/>
+    </row>
+    <row r="137" spans="1:47">
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+      <c r="R137" s="29"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="29"/>
+      <c r="U137" s="29"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
+      <c r="X137" s="29"/>
+      <c r="Y137" s="29"/>
+      <c r="Z137" s="29"/>
+      <c r="AA137" s="29"/>
+      <c r="AB137" s="29"/>
+      <c r="AC137" s="29"/>
+      <c r="AD137" s="29"/>
+      <c r="AE137" s="29"/>
+      <c r="AF137" s="29"/>
+      <c r="AG137" s="29"/>
+      <c r="AH137" s="29"/>
+      <c r="AI137" s="29"/>
+      <c r="AJ137" s="29"/>
+      <c r="AK137" s="29"/>
+      <c r="AL137" s="29"/>
+      <c r="AM137" s="29"/>
+      <c r="AN137" s="29"/>
+      <c r="AO137" s="29"/>
+      <c r="AP137" s="29"/>
+      <c r="AQ137" s="29"/>
+      <c r="AR137" s="29"/>
+      <c r="AS137" s="29"/>
+      <c r="AT137" s="29"/>
+      <c r="AU137" s="29"/>
+    </row>
+    <row r="138" spans="1:47">
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="29"/>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="29"/>
+      <c r="AD138" s="29"/>
+      <c r="AE138" s="29"/>
+      <c r="AF138" s="29"/>
+      <c r="AG138" s="29"/>
+      <c r="AH138" s="29"/>
+      <c r="AI138" s="29"/>
+      <c r="AJ138" s="29"/>
+      <c r="AK138" s="29"/>
+      <c r="AL138" s="29"/>
+      <c r="AM138" s="29"/>
+      <c r="AN138" s="29"/>
+      <c r="AO138" s="29"/>
+      <c r="AP138" s="29"/>
+      <c r="AQ138" s="29"/>
+      <c r="AR138" s="29"/>
+      <c r="AS138" s="29"/>
+      <c r="AT138" s="29"/>
+      <c r="AU138" s="29"/>
+    </row>
+    <row r="139" spans="1:47">
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
+      <c r="O139" s="29"/>
+      <c r="P139" s="29"/>
+      <c r="Q139" s="29"/>
+      <c r="R139" s="29"/>
+      <c r="S139" s="29"/>
+      <c r="T139" s="29"/>
+      <c r="U139" s="29"/>
+      <c r="V139" s="29"/>
+      <c r="W139" s="29"/>
+      <c r="X139" s="29"/>
+      <c r="Y139" s="29"/>
+      <c r="Z139" s="29"/>
+      <c r="AA139" s="29"/>
+      <c r="AB139" s="29"/>
+      <c r="AC139" s="29"/>
+      <c r="AD139" s="29"/>
+      <c r="AE139" s="29"/>
+      <c r="AF139" s="29"/>
+      <c r="AG139" s="29"/>
+      <c r="AH139" s="29"/>
+      <c r="AI139" s="29"/>
+      <c r="AJ139" s="29"/>
+      <c r="AK139" s="29"/>
+      <c r="AL139" s="29"/>
+      <c r="AM139" s="29"/>
+      <c r="AN139" s="29"/>
+      <c r="AO139" s="29"/>
+      <c r="AP139" s="29"/>
+      <c r="AQ139" s="29"/>
+      <c r="AR139" s="29"/>
+      <c r="AS139" s="29"/>
+      <c r="AT139" s="29"/>
+      <c r="AU139" s="29"/>
+    </row>
+    <row r="140" spans="1:47">
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
+      <c r="O140" s="29"/>
+      <c r="P140" s="29"/>
+      <c r="Q140" s="29"/>
+      <c r="R140" s="29"/>
+      <c r="S140" s="29"/>
+      <c r="T140" s="29"/>
+      <c r="U140" s="29"/>
+      <c r="V140" s="29"/>
+      <c r="W140" s="29"/>
+      <c r="X140" s="29"/>
+      <c r="Y140" s="29"/>
+      <c r="Z140" s="29"/>
+      <c r="AA140" s="29"/>
+      <c r="AB140" s="29"/>
+      <c r="AC140" s="29"/>
+      <c r="AD140" s="29"/>
+      <c r="AE140" s="29"/>
+      <c r="AF140" s="29"/>
+      <c r="AG140" s="29"/>
+      <c r="AH140" s="29"/>
+      <c r="AI140" s="29"/>
+      <c r="AJ140" s="29"/>
+      <c r="AK140" s="29"/>
+      <c r="AL140" s="29"/>
+      <c r="AM140" s="29"/>
+      <c r="AN140" s="29"/>
+      <c r="AO140" s="29"/>
+      <c r="AP140" s="29"/>
+      <c r="AQ140" s="29"/>
+      <c r="AR140" s="29"/>
+      <c r="AS140" s="29"/>
+      <c r="AT140" s="29"/>
+      <c r="AU140" s="29"/>
+    </row>
+    <row r="141" spans="1:47">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="29"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="29"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="29"/>
+      <c r="U141" s="29"/>
+      <c r="V141" s="29"/>
+      <c r="W141" s="29"/>
+      <c r="X141" s="29"/>
+      <c r="Y141" s="29"/>
+      <c r="Z141" s="29"/>
+      <c r="AA141" s="29"/>
+      <c r="AB141" s="29"/>
+      <c r="AC141" s="29"/>
+      <c r="AD141" s="29"/>
+      <c r="AE141" s="29"/>
+      <c r="AF141" s="29"/>
+      <c r="AG141" s="29"/>
+      <c r="AH141" s="29"/>
+      <c r="AI141" s="29"/>
+      <c r="AJ141" s="29"/>
+      <c r="AK141" s="29"/>
+      <c r="AL141" s="29"/>
+      <c r="AM141" s="29"/>
+      <c r="AN141" s="29"/>
+      <c r="AO141" s="29"/>
+      <c r="AP141" s="29"/>
+      <c r="AQ141" s="29"/>
+      <c r="AR141" s="29"/>
+      <c r="AS141" s="29"/>
+      <c r="AT141" s="29"/>
+      <c r="AU141" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <mergeCells count="23">
-    <mergeCell ref="H21:L21"/>
+  <mergeCells count="59">
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:C3"/>
@@ -50414,27 +50122,64 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="F36:F44"/>
+    <mergeCell ref="G36:G44"/>
+    <mergeCell ref="H36:H44"/>
+    <mergeCell ref="I36:I44"/>
+    <mergeCell ref="J36:J44"/>
+    <mergeCell ref="K36:K44"/>
+    <mergeCell ref="L36:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="K46:K51"/>
+    <mergeCell ref="L46:L51"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="I46:I51"/>
+    <mergeCell ref="J46:J51"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="MFX23:MGA26 AMR23:AMU26 SHL23:SHO26 AWN23:AWQ26 MPT23:MPW26 BGJ23:BGM26 VIF23:VII26 BQF23:BQI26 MZP23:MZS26 CAB23:CAE26 SRH23:SRK26 CJX23:CKA26 NJL23:NJO26 CTT23:CTW26 WVP23:WVS26 DDP23:DDS26 NTH23:NTK26 DNL23:DNO26 TBD23:TBG26 DXH23:DXK26 ODD23:ODG26 EHD23:EHG26 VSB23:VSE26 EQZ23:ERC26 OMZ23:ONC26 FAV23:FAY26 TKZ23:TLC26 FKR23:FKU26 OWV23:OWY26 FUN23:FUQ26 JD23:JG26 GEJ23:GEM26 PGR23:PGU26 GOF23:GOI26 TUV23:TUY26 GYB23:GYE26 PQN23:PQQ26 HHX23:HIA26 WBX23:WCA26 HRT23:HRW26 QAJ23:QAM26 IBP23:IBS26 UER23:UEU26 ILL23:ILO26 QKF23:QKI26 IVH23:IVK26 SZ23:TC26 JFD23:JFG26 QUB23:QUE26 JOZ23:JPC26 UON23:UOQ26 JYV23:JYY26 RDX23:REA26 KIR23:KIU26 WLT23:WLW26 KSN23:KSQ26 RNT23:RNW26 LCJ23:LCM26 UYJ23:UYM26 LMF23:LMI26 RXP23:RXS26 LWB23:LWE26 ACV23:ACY26" xr:uid="{F10FE83F-61D8-4140-B18D-7D0CA26FA4EB}">
+    <dataValidation type="list" allowBlank="1" sqref="MFX23:MGA51 AMR23:AMU51 SHL23:SHO51 AWN23:AWQ51 MPT23:MPW51 BGJ23:BGM51 VIF23:VII51 BQF23:BQI51 MZP23:MZS51 CAB23:CAE51 SRH23:SRK51 CJX23:CKA51 NJL23:NJO51 CTT23:CTW51 WVP23:WVS51 DDP23:DDS51 NTH23:NTK51 DNL23:DNO51 TBD23:TBG51 DXH23:DXK51 ODD23:ODG51 EHD23:EHG51 VSB23:VSE51 EQZ23:ERC51 OMZ23:ONC51 FAV23:FAY51 TKZ23:TLC51 FKR23:FKU51 OWV23:OWY51 FUN23:FUQ51 JD23:JG51 GEJ23:GEM51 PGR23:PGU51 GOF23:GOI51 TUV23:TUY51 GYB23:GYE51 PQN23:PQQ51 HHX23:HIA51 WBX23:WCA51 HRT23:HRW51 QAJ23:QAM51 IBP23:IBS51 UER23:UEU51 ILL23:ILO51 QKF23:QKI51 IVH23:IVK51 SZ23:TC51 JFD23:JFG51 QUB23:QUE51 JOZ23:JPC51 UON23:UOQ51 JYV23:JYY51 RDX23:REA51 KIR23:KIU51 WLT23:WLW51 KSN23:KSQ51 RNT23:RNW51 LCJ23:LCM51 UYJ23:UYM51 LMF23:LMI51 RXP23:RXS51 LWB23:LWE51 ACV23:ACY51" xr:uid="{F10FE83F-61D8-4140-B18D-7D0CA26FA4EB}">
       <formula1>$A$14:$A$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H23:L23" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
+    <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H35:L35 H45:L45" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
       <formula1>$B$13:$G$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{52397D1C-D727-4879-8F3C-C418CCE9A0FD}">
@@ -50444,6 +50189,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A23 A29 A35 A45" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REFERENCES\VLU-SENIOR.SEMES1\AUTE\Project Manual TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843894E7-B795-4F33-9ACB-00D8452C8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459EECD-CB05-4E5B-8358-409717D60278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="4" activeTab="6" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
@@ -740,7 +740,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="229">
   <si>
     <t>Func - Module</t>
   </si>
@@ -1417,13 +1417,7 @@
     <t>Kiểm tra rằng user add to cart thành công khi thêm 1 sản phẩm vào giỏ hàng với số lượng 1</t>
   </si>
   <si>
-    <t>Kiểm tra rằng user add to cart thành công khi thêm 1 sản phẩm vào giỏ hàng với số lượng nhiều hơn 1</t>
-  </si>
-  <si>
     <t>5. Kiểm tra các thông tin có hợp lệ tại trang Giỏ hàng của bạn</t>
-  </si>
-  <si>
-    <t>1&lt;=${toTalProduct}&lt;=100</t>
   </si>
   <si>
     <t>6. Click vào nút Thêm vào giỏ hàng</t>
@@ -1560,6 +1554,42 @@
   </si>
   <si>
     <t>6. Kiểm tra lại các thông tin được hiển thị có hợp lệ khi Xóa sản phẩm khỏi Giỏ hàng</t>
+  </si>
+  <si>
+    <t>2. Hover chuột vào anchor Sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user add to cart thành công khi thêm 1 sản phẩm loại nhẫn còn bán vào giỏ hàng với số lượng nhiều hơn 1</t>
+  </si>
+  <si>
+    <t>3. Hover chuột vào anchor Phụ kiện</t>
+  </si>
+  <si>
+    <t>4. Click vào anchor Nhẫn</t>
+  </si>
+  <si>
+    <t>5. Chọn một nhẫn vẫn còn hàng từ danh sách Nhẫn</t>
+  </si>
+  <si>
+    <t>7. Click vào nút Xem giỏ hàng được popped up</t>
+  </si>
+  <si>
+    <t>8. Click vào icon "+" để tăng số lượng nhẫn muốn mua</t>
+  </si>
+  <si>
+    <t>5. Chọn một nhẫn đã hết hàng từ danh sách Nhẫn</t>
+  </si>
+  <si>
+    <t>6. Kiểm tra thông báo hết hàng đã được hiển tị</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user add to cart không thành công khi thêm 1 sản phẩm loại nhẫn không còn hàng vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Hệ thống navigate user vào trang chi tiết sản phẩm với các elements sau:
++ Một label hiển thị sản phẩm đã Hết hàng
++ Một button hiển thị sản phẩm đã Hết hàng
++ Add to cart không thành công!</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1896,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2143,6 +2173,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44663,10 +44705,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AU141"/>
+  <dimension ref="A1:AU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -44878,27 +44920,27 @@
         <v>Build1</v>
       </c>
       <c r="B14" s="19">
-        <f t="shared" ref="B14:G14" si="0">COUNTIF($L$23:$L$48468,B13)</f>
+        <f>COUNTIF($L$23:$L$48479,B13)</f>
         <v>0</v>
       </c>
       <c r="C14" s="19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($L$23:$L$48479,C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($L$23:$L$48479,D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($L$23:$L$48479,E13)</f>
         <v>0</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($L$23:$L$48479,F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($L$23:$L$48479,G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="20"/>
@@ -44913,27 +44955,27 @@
         <v>Build2</v>
       </c>
       <c r="B15" s="19">
-        <f t="shared" ref="B15:G15" si="1">COUNTIF($K$23:$K$48468,B13)</f>
+        <f>COUNTIF($K$23:$K$48479,B13)</f>
         <v>0</v>
       </c>
       <c r="C15" s="19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K$23:$K$48479,C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K$23:$K$48479,D13)</f>
         <v>0</v>
       </c>
       <c r="E15" s="19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K$23:$K$48479,E13)</f>
         <v>0</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K$23:$K$48479,F13)</f>
         <v>0</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K$23:$K$48479,G13)</f>
         <v>0</v>
       </c>
       <c r="H15" s="20"/>
@@ -44948,27 +44990,27 @@
         <v>Build3</v>
       </c>
       <c r="B16" s="19">
-        <f t="shared" ref="B16:G16" si="2">COUNTIF($J$23:$J$48468,B13)</f>
+        <f>COUNTIF($J$23:$J$48479,B13)</f>
         <v>0</v>
       </c>
       <c r="C16" s="19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($J$23:$J$48479,C13)</f>
         <v>0</v>
       </c>
       <c r="D16" s="19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($J$23:$J$48479,D13)</f>
         <v>0</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($J$23:$J$48479,E13)</f>
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($J$23:$J$48479,F13)</f>
         <v>0</v>
       </c>
       <c r="G16" s="19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($J$23:$J$48479,G13)</f>
         <v>0</v>
       </c>
       <c r="H16" s="20"/>
@@ -44983,27 +45025,27 @@
         <v>Build4</v>
       </c>
       <c r="B17" s="19">
-        <f>COUNTIF($I$23:$I$48468,B13)</f>
+        <f>COUNTIF($I$23:$I$48479,B13)</f>
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <f>COUNTIF($I$23:$I$48468,C16)</f>
+        <f>COUNTIF($I$23:$I$48479,C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="19">
-        <f>COUNTIF($I$23:$I$48468,D13)</f>
+        <f>COUNTIF($I$23:$I$48479,D13)</f>
         <v>0</v>
       </c>
       <c r="E17" s="19">
-        <f>COUNTIF($I$23:$I$48468,E13)</f>
+        <f>COUNTIF($I$23:$I$48479,E13)</f>
         <v>0</v>
       </c>
       <c r="F17" s="19">
-        <f>COUNTIF($I$23:$I$48468,F13)</f>
+        <f>COUNTIF($I$23:$I$48479,F13)</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>COUNTIF($I$23:$I$48468,G13)</f>
+        <f>COUNTIF($I$23:$I$48479,G13)</f>
         <v>0</v>
       </c>
       <c r="H17" s="20"/>
@@ -45018,27 +45060,27 @@
         <v>Build5</v>
       </c>
       <c r="B18" s="19">
-        <f t="shared" ref="B18:G18" si="3">COUNTIF($H$23:$H$48468,B13)</f>
+        <f>COUNTIF($H$23:$H$48479,B13)</f>
         <v>0</v>
       </c>
       <c r="C18" s="19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($H$23:$H$48479,C13)</f>
         <v>0</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($H$23:$H$48479,D13)</f>
         <v>0</v>
       </c>
       <c r="E18" s="19">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF($H$23:$H$48479,E13)</f>
+        <v>5</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($H$23:$H$48479,F13)</f>
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($H$23:$H$48479,G13)</f>
         <v>0</v>
       </c>
       <c r="H18" s="20"/>
@@ -45052,27 +45094,27 @@
         <v>15</v>
       </c>
       <c r="B19" s="22">
-        <f t="shared" ref="B19:G19" si="4">SUM(B14:B18)</f>
+        <f t="shared" ref="B19:G19" si="0">SUM(B14:B18)</f>
         <v>0</v>
       </c>
       <c r="C19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="22">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="20"/>
@@ -45175,7 +45217,7 @@
         <v>163</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E24" s="94"/>
       <c r="F24" s="80" t="s">
@@ -45252,7 +45294,7 @@
       <c r="A28" s="72"/>
       <c r="B28" s="68"/>
       <c r="C28" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="73"/>
       <c r="E28" s="94"/>
@@ -45269,7 +45311,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
@@ -45293,10 +45335,10 @@
         <v>163</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="93" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F30" s="80" t="s">
         <v>28</v>
@@ -45324,7 +45366,7 @@
       <c r="A31" s="72"/>
       <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D31" s="73"/>
       <c r="E31" s="93"/>
@@ -45336,11 +45378,11 @@
       <c r="K31" s="80"/>
       <c r="L31" s="80"/>
     </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
       <c r="A32" s="72"/>
       <c r="B32" s="68"/>
       <c r="C32" s="27" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D32" s="73"/>
       <c r="E32" s="93"/>
@@ -45352,11 +45394,11 @@
       <c r="K32" s="80"/>
       <c r="L32" s="80"/>
     </row>
-    <row r="33" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
       <c r="A33" s="72"/>
       <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D33" s="73"/>
       <c r="E33" s="93"/>
@@ -45368,11 +45410,11 @@
       <c r="K33" s="80"/>
       <c r="L33" s="80"/>
     </row>
-    <row r="34" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
       <c r="A34" s="72"/>
       <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D34" s="73"/>
       <c r="E34" s="93"/>
@@ -45384,67 +45426,43 @@
       <c r="K34" s="80"/>
       <c r="L34" s="80"/>
     </row>
-    <row r="35" spans="1:12" s="12" customFormat="1" ht="13.2">
-      <c r="A35" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+    <row r="35" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A35" s="72"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="B36" s="68"/>
+      <c r="C36" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+    </row>
+    <row r="37" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A37" s="72"/>
       <c r="B37" s="68"/>
       <c r="C37" s="27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D37" s="73"/>
       <c r="E37" s="93"/>
@@ -45460,7 +45478,7 @@
       <c r="A38" s="72"/>
       <c r="B38" s="68"/>
       <c r="C38" s="27" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D38" s="73"/>
       <c r="E38" s="93"/>
@@ -45472,177 +45490,201 @@
       <c r="K38" s="80"/>
       <c r="L38" s="80"/>
     </row>
-    <row r="39" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
+    <row r="39" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A39" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-    </row>
-    <row r="41" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="68"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="95"/>
+      <c r="F40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-    </row>
-    <row r="42" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="68"/>
+        <v>218</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+    </row>
+    <row r="42" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A42" s="50"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-    </row>
-    <row r="43" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="68"/>
+        <v>220</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+    </row>
+    <row r="43" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A43" s="50"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+    </row>
+    <row r="44" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+    </row>
+    <row r="45" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="98"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+    </row>
+    <row r="46" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A46" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+    </row>
+    <row r="47" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A47" s="72"/>
+      <c r="B47" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-    </row>
-    <row r="44" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="A44" s="72"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-    </row>
-    <row r="45" spans="1:12" s="12" customFormat="1" ht="13.2">
-      <c r="A45" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" s="93"/>
-      <c r="F46" s="80" t="s">
+      <c r="F47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="80" t="s">
+      <c r="G47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="H47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="80" t="s">
+      <c r="I47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="80" t="s">
+      <c r="J47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="80" t="s">
+      <c r="K47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="80" t="s">
+      <c r="L47" s="80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-    </row>
-    <row r="48" spans="1:12" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:12" s="28" customFormat="1" ht="36" customHeight="1" outlineLevel="1">
       <c r="A48" s="72"/>
       <c r="B48" s="68"/>
       <c r="C48" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" s="73"/>
       <c r="E48" s="93"/>
@@ -45654,11 +45696,11 @@
       <c r="K48" s="80"/>
       <c r="L48" s="80"/>
     </row>
-    <row r="49" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A49" s="72"/>
       <c r="B49" s="68"/>
       <c r="C49" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="73"/>
       <c r="E49" s="93"/>
@@ -45670,11 +45712,11 @@
       <c r="K49" s="80"/>
       <c r="L49" s="80"/>
     </row>
-    <row r="50" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A50" s="72"/>
       <c r="B50" s="68"/>
       <c r="C50" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D50" s="73"/>
       <c r="E50" s="93"/>
@@ -45686,11 +45728,11 @@
       <c r="K50" s="80"/>
       <c r="L50" s="80"/>
     </row>
-    <row r="51" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A51" s="72"/>
       <c r="B51" s="68"/>
       <c r="C51" s="27" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="93"/>
@@ -45702,544 +45744,203 @@
       <c r="K51" s="80"/>
       <c r="L51" s="80"/>
     </row>
-    <row r="52" spans="1:47">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="29"/>
-      <c r="AL52" s="29"/>
-      <c r="AM52" s="29"/>
-      <c r="AN52" s="29"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="29"/>
-      <c r="AQ52" s="29"/>
-      <c r="AR52" s="29"/>
-      <c r="AS52" s="29"/>
-      <c r="AT52" s="29"/>
-      <c r="AU52" s="29"/>
-    </row>
-    <row r="53" spans="1:47">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="29"/>
-      <c r="AM53" s="29"/>
-      <c r="AN53" s="29"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="29"/>
-      <c r="AR53" s="29"/>
-      <c r="AS53" s="29"/>
-      <c r="AT53" s="29"/>
-      <c r="AU53" s="29"/>
-    </row>
-    <row r="54" spans="1:47">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="29"/>
-      <c r="AF54" s="29"/>
-      <c r="AG54" s="29"/>
-      <c r="AH54" s="29"/>
-      <c r="AI54" s="29"/>
-      <c r="AJ54" s="29"/>
-      <c r="AK54" s="29"/>
-      <c r="AL54" s="29"/>
-      <c r="AM54" s="29"/>
-      <c r="AN54" s="29"/>
-      <c r="AO54" s="29"/>
-      <c r="AP54" s="29"/>
-      <c r="AQ54" s="29"/>
-      <c r="AR54" s="29"/>
-      <c r="AS54" s="29"/>
-      <c r="AT54" s="29"/>
-      <c r="AU54" s="29"/>
-    </row>
-    <row r="55" spans="1:47">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="29"/>
-      <c r="AI55" s="29"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="29"/>
-      <c r="AL55" s="29"/>
-      <c r="AM55" s="29"/>
-      <c r="AN55" s="29"/>
-      <c r="AO55" s="29"/>
-      <c r="AP55" s="29"/>
-      <c r="AQ55" s="29"/>
-      <c r="AR55" s="29"/>
-      <c r="AS55" s="29"/>
-      <c r="AT55" s="29"/>
-      <c r="AU55" s="29"/>
-    </row>
-    <row r="56" spans="1:47">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="29"/>
-      <c r="AH56" s="29"/>
-      <c r="AI56" s="29"/>
-      <c r="AJ56" s="29"/>
-      <c r="AK56" s="29"/>
-      <c r="AL56" s="29"/>
-      <c r="AM56" s="29"/>
-      <c r="AN56" s="29"/>
-      <c r="AO56" s="29"/>
-      <c r="AP56" s="29"/>
-      <c r="AQ56" s="29"/>
-      <c r="AR56" s="29"/>
-      <c r="AS56" s="29"/>
-      <c r="AT56" s="29"/>
-      <c r="AU56" s="29"/>
-    </row>
-    <row r="57" spans="1:47">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
-      <c r="AG57" s="29"/>
-      <c r="AH57" s="29"/>
-      <c r="AI57" s="29"/>
-      <c r="AJ57" s="29"/>
-      <c r="AK57" s="29"/>
-      <c r="AL57" s="29"/>
-      <c r="AM57" s="29"/>
-      <c r="AN57" s="29"/>
-      <c r="AO57" s="29"/>
-      <c r="AP57" s="29"/>
-      <c r="AQ57" s="29"/>
-      <c r="AR57" s="29"/>
-      <c r="AS57" s="29"/>
-      <c r="AT57" s="29"/>
-      <c r="AU57" s="29"/>
-    </row>
-    <row r="58" spans="1:47">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
-      <c r="AG58" s="29"/>
-      <c r="AH58" s="29"/>
-      <c r="AI58" s="29"/>
-      <c r="AJ58" s="29"/>
-      <c r="AK58" s="29"/>
-      <c r="AL58" s="29"/>
-      <c r="AM58" s="29"/>
-      <c r="AN58" s="29"/>
-      <c r="AO58" s="29"/>
-      <c r="AP58" s="29"/>
-      <c r="AQ58" s="29"/>
-      <c r="AR58" s="29"/>
-      <c r="AS58" s="29"/>
-      <c r="AT58" s="29"/>
-      <c r="AU58" s="29"/>
-    </row>
-    <row r="59" spans="1:47">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29"/>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29"/>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29"/>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29"/>
-      <c r="AU59" s="29"/>
-    </row>
-    <row r="60" spans="1:47">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-      <c r="AE60" s="29"/>
-      <c r="AF60" s="29"/>
-      <c r="AG60" s="29"/>
-      <c r="AH60" s="29"/>
-      <c r="AI60" s="29"/>
-      <c r="AJ60" s="29"/>
-      <c r="AK60" s="29"/>
-      <c r="AL60" s="29"/>
-      <c r="AM60" s="29"/>
-      <c r="AN60" s="29"/>
-      <c r="AO60" s="29"/>
-      <c r="AP60" s="29"/>
-      <c r="AQ60" s="29"/>
-      <c r="AR60" s="29"/>
-      <c r="AS60" s="29"/>
-      <c r="AT60" s="29"/>
-      <c r="AU60" s="29"/>
-    </row>
-    <row r="61" spans="1:47">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-      <c r="AF61" s="29"/>
-      <c r="AG61" s="29"/>
-      <c r="AH61" s="29"/>
-      <c r="AI61" s="29"/>
-      <c r="AJ61" s="29"/>
-      <c r="AK61" s="29"/>
-      <c r="AL61" s="29"/>
-      <c r="AM61" s="29"/>
-      <c r="AN61" s="29"/>
-      <c r="AO61" s="29"/>
-      <c r="AP61" s="29"/>
-      <c r="AQ61" s="29"/>
-      <c r="AR61" s="29"/>
-      <c r="AS61" s="29"/>
-      <c r="AT61" s="29"/>
-      <c r="AU61" s="29"/>
-    </row>
-    <row r="62" spans="1:47">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
-      <c r="AF62" s="29"/>
-      <c r="AG62" s="29"/>
-      <c r="AH62" s="29"/>
-      <c r="AI62" s="29"/>
-      <c r="AJ62" s="29"/>
-      <c r="AK62" s="29"/>
-      <c r="AL62" s="29"/>
-      <c r="AM62" s="29"/>
-      <c r="AN62" s="29"/>
-      <c r="AO62" s="29"/>
-      <c r="AP62" s="29"/>
-      <c r="AQ62" s="29"/>
-      <c r="AR62" s="29"/>
-      <c r="AS62" s="29"/>
-      <c r="AT62" s="29"/>
-      <c r="AU62" s="29"/>
+    <row r="52" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+    </row>
+    <row r="53" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A53" s="72"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+    </row>
+    <row r="54" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A54" s="72"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="73"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+    </row>
+    <row r="55" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A55" s="72"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="73"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+    </row>
+    <row r="56" spans="1:47" s="12" customFormat="1" ht="13.2">
+      <c r="A56" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A57" s="72"/>
+      <c r="B57" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A58" s="72"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+    </row>
+    <row r="59" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A59" s="72"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+    </row>
+    <row r="60" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A60" s="72"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="73"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+    </row>
+    <row r="61" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A61" s="72"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="73"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+    </row>
+    <row r="62" spans="1:47" s="28" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A62" s="72"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="73"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
     </row>
     <row r="63" spans="1:47">
       <c r="A63" s="29"/>
@@ -50112,9 +49813,558 @@
       <c r="AT141" s="29"/>
       <c r="AU141" s="29"/>
     </row>
+    <row r="142" spans="1:47">
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="29"/>
+      <c r="R142" s="29"/>
+      <c r="S142" s="29"/>
+      <c r="T142" s="29"/>
+      <c r="U142" s="29"/>
+      <c r="V142" s="29"/>
+      <c r="W142" s="29"/>
+      <c r="X142" s="29"/>
+      <c r="Y142" s="29"/>
+      <c r="Z142" s="29"/>
+      <c r="AA142" s="29"/>
+      <c r="AB142" s="29"/>
+      <c r="AC142" s="29"/>
+      <c r="AD142" s="29"/>
+      <c r="AE142" s="29"/>
+      <c r="AF142" s="29"/>
+      <c r="AG142" s="29"/>
+      <c r="AH142" s="29"/>
+      <c r="AI142" s="29"/>
+      <c r="AJ142" s="29"/>
+      <c r="AK142" s="29"/>
+      <c r="AL142" s="29"/>
+      <c r="AM142" s="29"/>
+      <c r="AN142" s="29"/>
+      <c r="AO142" s="29"/>
+      <c r="AP142" s="29"/>
+      <c r="AQ142" s="29"/>
+      <c r="AR142" s="29"/>
+      <c r="AS142" s="29"/>
+      <c r="AT142" s="29"/>
+      <c r="AU142" s="29"/>
+    </row>
+    <row r="143" spans="1:47">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="29"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="29"/>
+      <c r="U143" s="29"/>
+      <c r="V143" s="29"/>
+      <c r="W143" s="29"/>
+      <c r="X143" s="29"/>
+      <c r="Y143" s="29"/>
+      <c r="Z143" s="29"/>
+      <c r="AA143" s="29"/>
+      <c r="AB143" s="29"/>
+      <c r="AC143" s="29"/>
+      <c r="AD143" s="29"/>
+      <c r="AE143" s="29"/>
+      <c r="AF143" s="29"/>
+      <c r="AG143" s="29"/>
+      <c r="AH143" s="29"/>
+      <c r="AI143" s="29"/>
+      <c r="AJ143" s="29"/>
+      <c r="AK143" s="29"/>
+      <c r="AL143" s="29"/>
+      <c r="AM143" s="29"/>
+      <c r="AN143" s="29"/>
+      <c r="AO143" s="29"/>
+      <c r="AP143" s="29"/>
+      <c r="AQ143" s="29"/>
+      <c r="AR143" s="29"/>
+      <c r="AS143" s="29"/>
+      <c r="AT143" s="29"/>
+      <c r="AU143" s="29"/>
+    </row>
+    <row r="144" spans="1:47">
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="29"/>
+      <c r="S144" s="29"/>
+      <c r="T144" s="29"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="29"/>
+      <c r="W144" s="29"/>
+      <c r="X144" s="29"/>
+      <c r="Y144" s="29"/>
+      <c r="Z144" s="29"/>
+      <c r="AA144" s="29"/>
+      <c r="AB144" s="29"/>
+      <c r="AC144" s="29"/>
+      <c r="AD144" s="29"/>
+      <c r="AE144" s="29"/>
+      <c r="AF144" s="29"/>
+      <c r="AG144" s="29"/>
+      <c r="AH144" s="29"/>
+      <c r="AI144" s="29"/>
+      <c r="AJ144" s="29"/>
+      <c r="AK144" s="29"/>
+      <c r="AL144" s="29"/>
+      <c r="AM144" s="29"/>
+      <c r="AN144" s="29"/>
+      <c r="AO144" s="29"/>
+      <c r="AP144" s="29"/>
+      <c r="AQ144" s="29"/>
+      <c r="AR144" s="29"/>
+      <c r="AS144" s="29"/>
+      <c r="AT144" s="29"/>
+      <c r="AU144" s="29"/>
+    </row>
+    <row r="145" spans="1:47">
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="29"/>
+      <c r="Q145" s="29"/>
+      <c r="R145" s="29"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="29"/>
+      <c r="U145" s="29"/>
+      <c r="V145" s="29"/>
+      <c r="W145" s="29"/>
+      <c r="X145" s="29"/>
+      <c r="Y145" s="29"/>
+      <c r="Z145" s="29"/>
+      <c r="AA145" s="29"/>
+      <c r="AB145" s="29"/>
+      <c r="AC145" s="29"/>
+      <c r="AD145" s="29"/>
+      <c r="AE145" s="29"/>
+      <c r="AF145" s="29"/>
+      <c r="AG145" s="29"/>
+      <c r="AH145" s="29"/>
+      <c r="AI145" s="29"/>
+      <c r="AJ145" s="29"/>
+      <c r="AK145" s="29"/>
+      <c r="AL145" s="29"/>
+      <c r="AM145" s="29"/>
+      <c r="AN145" s="29"/>
+      <c r="AO145" s="29"/>
+      <c r="AP145" s="29"/>
+      <c r="AQ145" s="29"/>
+      <c r="AR145" s="29"/>
+      <c r="AS145" s="29"/>
+      <c r="AT145" s="29"/>
+      <c r="AU145" s="29"/>
+    </row>
+    <row r="146" spans="1:47">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="29"/>
+      <c r="W146" s="29"/>
+      <c r="X146" s="29"/>
+      <c r="Y146" s="29"/>
+      <c r="Z146" s="29"/>
+      <c r="AA146" s="29"/>
+      <c r="AB146" s="29"/>
+      <c r="AC146" s="29"/>
+      <c r="AD146" s="29"/>
+      <c r="AE146" s="29"/>
+      <c r="AF146" s="29"/>
+      <c r="AG146" s="29"/>
+      <c r="AH146" s="29"/>
+      <c r="AI146" s="29"/>
+      <c r="AJ146" s="29"/>
+      <c r="AK146" s="29"/>
+      <c r="AL146" s="29"/>
+      <c r="AM146" s="29"/>
+      <c r="AN146" s="29"/>
+      <c r="AO146" s="29"/>
+      <c r="AP146" s="29"/>
+      <c r="AQ146" s="29"/>
+      <c r="AR146" s="29"/>
+      <c r="AS146" s="29"/>
+      <c r="AT146" s="29"/>
+      <c r="AU146" s="29"/>
+    </row>
+    <row r="147" spans="1:47">
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="29"/>
+      <c r="R147" s="29"/>
+      <c r="S147" s="29"/>
+      <c r="T147" s="29"/>
+      <c r="U147" s="29"/>
+      <c r="V147" s="29"/>
+      <c r="W147" s="29"/>
+      <c r="X147" s="29"/>
+      <c r="Y147" s="29"/>
+      <c r="Z147" s="29"/>
+      <c r="AA147" s="29"/>
+      <c r="AB147" s="29"/>
+      <c r="AC147" s="29"/>
+      <c r="AD147" s="29"/>
+      <c r="AE147" s="29"/>
+      <c r="AF147" s="29"/>
+      <c r="AG147" s="29"/>
+      <c r="AH147" s="29"/>
+      <c r="AI147" s="29"/>
+      <c r="AJ147" s="29"/>
+      <c r="AK147" s="29"/>
+      <c r="AL147" s="29"/>
+      <c r="AM147" s="29"/>
+      <c r="AN147" s="29"/>
+      <c r="AO147" s="29"/>
+      <c r="AP147" s="29"/>
+      <c r="AQ147" s="29"/>
+      <c r="AR147" s="29"/>
+      <c r="AS147" s="29"/>
+      <c r="AT147" s="29"/>
+      <c r="AU147" s="29"/>
+    </row>
+    <row r="148" spans="1:47">
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
+      <c r="R148" s="29"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="29"/>
+      <c r="U148" s="29"/>
+      <c r="V148" s="29"/>
+      <c r="W148" s="29"/>
+      <c r="X148" s="29"/>
+      <c r="Y148" s="29"/>
+      <c r="Z148" s="29"/>
+      <c r="AA148" s="29"/>
+      <c r="AB148" s="29"/>
+      <c r="AC148" s="29"/>
+      <c r="AD148" s="29"/>
+      <c r="AE148" s="29"/>
+      <c r="AF148" s="29"/>
+      <c r="AG148" s="29"/>
+      <c r="AH148" s="29"/>
+      <c r="AI148" s="29"/>
+      <c r="AJ148" s="29"/>
+      <c r="AK148" s="29"/>
+      <c r="AL148" s="29"/>
+      <c r="AM148" s="29"/>
+      <c r="AN148" s="29"/>
+      <c r="AO148" s="29"/>
+      <c r="AP148" s="29"/>
+      <c r="AQ148" s="29"/>
+      <c r="AR148" s="29"/>
+      <c r="AS148" s="29"/>
+      <c r="AT148" s="29"/>
+      <c r="AU148" s="29"/>
+    </row>
+    <row r="149" spans="1:47">
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="29"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="29"/>
+      <c r="Q149" s="29"/>
+      <c r="R149" s="29"/>
+      <c r="S149" s="29"/>
+      <c r="T149" s="29"/>
+      <c r="U149" s="29"/>
+      <c r="V149" s="29"/>
+      <c r="W149" s="29"/>
+      <c r="X149" s="29"/>
+      <c r="Y149" s="29"/>
+      <c r="Z149" s="29"/>
+      <c r="AA149" s="29"/>
+      <c r="AB149" s="29"/>
+      <c r="AC149" s="29"/>
+      <c r="AD149" s="29"/>
+      <c r="AE149" s="29"/>
+      <c r="AF149" s="29"/>
+      <c r="AG149" s="29"/>
+      <c r="AH149" s="29"/>
+      <c r="AI149" s="29"/>
+      <c r="AJ149" s="29"/>
+      <c r="AK149" s="29"/>
+      <c r="AL149" s="29"/>
+      <c r="AM149" s="29"/>
+      <c r="AN149" s="29"/>
+      <c r="AO149" s="29"/>
+      <c r="AP149" s="29"/>
+      <c r="AQ149" s="29"/>
+      <c r="AR149" s="29"/>
+      <c r="AS149" s="29"/>
+      <c r="AT149" s="29"/>
+      <c r="AU149" s="29"/>
+    </row>
+    <row r="150" spans="1:47">
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="29"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="29"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="29"/>
+      <c r="X150" s="29"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="29"/>
+      <c r="AA150" s="29"/>
+      <c r="AB150" s="29"/>
+      <c r="AC150" s="29"/>
+      <c r="AD150" s="29"/>
+      <c r="AE150" s="29"/>
+      <c r="AF150" s="29"/>
+      <c r="AG150" s="29"/>
+      <c r="AH150" s="29"/>
+      <c r="AI150" s="29"/>
+      <c r="AJ150" s="29"/>
+      <c r="AK150" s="29"/>
+      <c r="AL150" s="29"/>
+      <c r="AM150" s="29"/>
+      <c r="AN150" s="29"/>
+      <c r="AO150" s="29"/>
+      <c r="AP150" s="29"/>
+      <c r="AQ150" s="29"/>
+      <c r="AR150" s="29"/>
+      <c r="AS150" s="29"/>
+      <c r="AT150" s="29"/>
+      <c r="AU150" s="29"/>
+    </row>
+    <row r="151" spans="1:47">
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="29"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="29"/>
+      <c r="U151" s="29"/>
+      <c r="V151" s="29"/>
+      <c r="W151" s="29"/>
+      <c r="X151" s="29"/>
+      <c r="Y151" s="29"/>
+      <c r="Z151" s="29"/>
+      <c r="AA151" s="29"/>
+      <c r="AB151" s="29"/>
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="29"/>
+      <c r="AE151" s="29"/>
+      <c r="AF151" s="29"/>
+      <c r="AG151" s="29"/>
+      <c r="AH151" s="29"/>
+      <c r="AI151" s="29"/>
+      <c r="AJ151" s="29"/>
+      <c r="AK151" s="29"/>
+      <c r="AL151" s="29"/>
+      <c r="AM151" s="29"/>
+      <c r="AN151" s="29"/>
+      <c r="AO151" s="29"/>
+      <c r="AP151" s="29"/>
+      <c r="AQ151" s="29"/>
+      <c r="AR151" s="29"/>
+      <c r="AS151" s="29"/>
+      <c r="AT151" s="29"/>
+      <c r="AU151" s="29"/>
+    </row>
+    <row r="152" spans="1:47">
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="29"/>
+      <c r="Q152" s="29"/>
+      <c r="R152" s="29"/>
+      <c r="S152" s="29"/>
+      <c r="T152" s="29"/>
+      <c r="U152" s="29"/>
+      <c r="V152" s="29"/>
+      <c r="W152" s="29"/>
+      <c r="X152" s="29"/>
+      <c r="Y152" s="29"/>
+      <c r="Z152" s="29"/>
+      <c r="AA152" s="29"/>
+      <c r="AB152" s="29"/>
+      <c r="AC152" s="29"/>
+      <c r="AD152" s="29"/>
+      <c r="AE152" s="29"/>
+      <c r="AF152" s="29"/>
+      <c r="AG152" s="29"/>
+      <c r="AH152" s="29"/>
+      <c r="AI152" s="29"/>
+      <c r="AJ152" s="29"/>
+      <c r="AK152" s="29"/>
+      <c r="AL152" s="29"/>
+      <c r="AM152" s="29"/>
+      <c r="AN152" s="29"/>
+      <c r="AO152" s="29"/>
+      <c r="AP152" s="29"/>
+      <c r="AQ152" s="29"/>
+      <c r="AR152" s="29"/>
+      <c r="AS152" s="29"/>
+      <c r="AT152" s="29"/>
+      <c r="AU152" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <mergeCells count="59">
+  <mergeCells count="71">
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:C3"/>
@@ -50128,16 +50378,16 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="L24:L28"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="J30:J38"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="E30:E38"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
@@ -50148,49 +50398,51 @@
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="F24:F28"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="E36:E44"/>
-    <mergeCell ref="F36:F44"/>
-    <mergeCell ref="G36:G44"/>
-    <mergeCell ref="H36:H44"/>
-    <mergeCell ref="I36:I44"/>
-    <mergeCell ref="J36:J44"/>
-    <mergeCell ref="K36:K44"/>
-    <mergeCell ref="L36:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="K46:K51"/>
-    <mergeCell ref="L46:L51"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="I46:I51"/>
-    <mergeCell ref="J46:J51"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="L30:L38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="E47:E55"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="H47:H55"/>
+    <mergeCell ref="I47:I55"/>
+    <mergeCell ref="J47:J55"/>
+    <mergeCell ref="K47:K55"/>
+    <mergeCell ref="L47:L55"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J57:J62"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="MFX23:MGA51 AMR23:AMU51 SHL23:SHO51 AWN23:AWQ51 MPT23:MPW51 BGJ23:BGM51 VIF23:VII51 BQF23:BQI51 MZP23:MZS51 CAB23:CAE51 SRH23:SRK51 CJX23:CKA51 NJL23:NJO51 CTT23:CTW51 WVP23:WVS51 DDP23:DDS51 NTH23:NTK51 DNL23:DNO51 TBD23:TBG51 DXH23:DXK51 ODD23:ODG51 EHD23:EHG51 VSB23:VSE51 EQZ23:ERC51 OMZ23:ONC51 FAV23:FAY51 TKZ23:TLC51 FKR23:FKU51 OWV23:OWY51 FUN23:FUQ51 JD23:JG51 GEJ23:GEM51 PGR23:PGU51 GOF23:GOI51 TUV23:TUY51 GYB23:GYE51 PQN23:PQQ51 HHX23:HIA51 WBX23:WCA51 HRT23:HRW51 QAJ23:QAM51 IBP23:IBS51 UER23:UEU51 ILL23:ILO51 QKF23:QKI51 IVH23:IVK51 SZ23:TC51 JFD23:JFG51 QUB23:QUE51 JOZ23:JPC51 UON23:UOQ51 JYV23:JYY51 RDX23:REA51 KIR23:KIU51 WLT23:WLW51 KSN23:KSQ51 RNT23:RNW51 LCJ23:LCM51 UYJ23:UYM51 LMF23:LMI51 RXP23:RXS51 LWB23:LWE51 ACV23:ACY51" xr:uid="{F10FE83F-61D8-4140-B18D-7D0CA26FA4EB}">
-      <formula1>$A$14:$A$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H35:L35 H45:L45" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
+    <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H46:L46 H56:L56 H39:L39" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
       <formula1>$B$13:$G$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{52397D1C-D727-4879-8F3C-C418CCE9A0FD}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{D568824C-3C41-440E-8D35-AA20C3943BBD}"/>
+    <dataValidation type="list" allowBlank="1" sqref="ACV23:ACY62 LWB23:LWE62 RXP23:RXS62 LMF23:LMI62 UYJ23:UYM62 LCJ23:LCM62 RNT23:RNW62 KSN23:KSQ62 WLT23:WLW62 KIR23:KIU62 RDX23:REA62 JYV23:JYY62 UON23:UOQ62 JOZ23:JPC62 QUB23:QUE62 JFD23:JFG62 SZ23:TC62 IVH23:IVK62 QKF23:QKI62 ILL23:ILO62 UER23:UEU62 IBP23:IBS62 QAJ23:QAM62 HRT23:HRW62 WBX23:WCA62 HHX23:HIA62 PQN23:PQQ62 GYB23:GYE62 TUV23:TUY62 GOF23:GOI62 PGR23:PGU62 GEJ23:GEM62 JD23:JG62 FUN23:FUQ62 OWV23:OWY62 FKR23:FKU62 TKZ23:TLC62 FAV23:FAY62 OMZ23:ONC62 EQZ23:ERC62 VSB23:VSE62 EHD23:EHG62 ODD23:ODG62 DXH23:DXK62 TBD23:TBG62 DNL23:DNO62 NTH23:NTK62 DDP23:DDS62 WVP23:WVS62 CTT23:CTW62 NJL23:NJO62 CJX23:CKA62 SRH23:SRK62 CAB23:CAE62 MZP23:MZS62 BQF23:BQI62 VIF23:VII62 BGJ23:BGM62 MPT23:MPW62 AWN23:AWQ62 SHL23:SHO62 AMR23:AMU62 MFX23:MGA62" xr:uid="{F10FE83F-61D8-4140-B18D-7D0CA26FA4EB}">
+      <formula1>$A$14:$A$19</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A23 A29 A35 A45" numberStoredAsText="1"/>
+    <ignoredError sqref="A23 A29 A39 A46 A56" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REFERENCES\VLU-SENIOR.SEMES1\AUTE\Project Manual TCs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ECLIPSE-GIT\workspace\ZombieClothing_AUTE-IntelliJ-IDEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B39CB-8B87-47B4-9A4E-FC22D72A06A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E2CED-8B94-4E0A-98EB-5735BDDFDF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="5" activeTab="7" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Func- &lt;&lt;Log in&gt;&gt;" sheetId="2" r:id="rId1"/>
@@ -2217,21 +2217,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2240,15 +2225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2259,38 +2235,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2322,8 +2277,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2337,23 +2325,35 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2373,6 +2373,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2384,9 +2387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3344,28 +3344,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -3374,11 +3374,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3392,11 +3392,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3410,11 +3410,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3428,11 +3428,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -3446,11 +3446,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3464,11 +3464,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44475</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3482,9 +3482,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3748,13 +3748,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -3798,11 +3798,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -3815,68 +3815,68 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -3889,84 +3889,84 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -3979,98 +3979,98 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="68" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="47" t="s">
+      <c r="L33" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4083,98 +4083,98 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="67" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="K38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="68"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="69"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -4187,98 +4187,98 @@
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="67" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="47" t="s">
+      <c r="I43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="47" t="s">
+      <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="47" t="s">
+      <c r="K43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="83"/>
-      <c r="B44" s="68"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="83"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="69"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -4291,98 +4291,98 @@
       <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="67" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="47" t="s">
+      <c r="J48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="47" t="s">
+      <c r="K48" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="47" t="s">
+      <c r="L48" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="83"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A52" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -4395,98 +4395,98 @@
       <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="82"/>
-      <c r="B53" s="67" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="53" t="s">
+      <c r="H53" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="47" t="s">
+      <c r="K53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="47" t="s">
+      <c r="L53" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="83"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -4499,98 +4499,98 @@
       <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="49.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="82"/>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="47" t="s">
+      <c r="J58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="47" t="s">
+      <c r="K58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="47" t="s">
+      <c r="L58" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="83"/>
-      <c r="B59" s="68"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="83"/>
-      <c r="B60" s="68"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="84"/>
-      <c r="B61" s="69"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -4603,98 +4603,98 @@
       <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A63" s="82"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="53" t="s">
+      <c r="H63" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="47" t="s">
+      <c r="J63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="K63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="47" t="s">
+      <c r="L63" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A64" s="83"/>
-      <c r="B64" s="68"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
     </row>
     <row r="65" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A65" s="83"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
     </row>
     <row r="66" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="69"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4707,88 +4707,88 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A68" s="82"/>
-      <c r="B68" s="67" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="47" t="s">
+      <c r="G68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="47" t="s">
+      <c r="I68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="47" t="s">
+      <c r="J68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="47" t="s">
+      <c r="K68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="47" t="s">
+      <c r="L68" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="83"/>
-      <c r="B69" s="68"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
     </row>
     <row r="70" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A70" s="83"/>
-      <c r="B70" s="68"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
     </row>
     <row r="71" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A71" s="84"/>
-      <c r="B71" s="69"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:47" collapsed="1">
       <c r="A72" s="29"/>
@@ -13172,6 +13172,113 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="131">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
     <mergeCell ref="G68:G71"/>
     <mergeCell ref="H68:H71"/>
     <mergeCell ref="I68:I71"/>
@@ -13196,113 +13303,6 @@
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="E63:E66"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{060123B6-39FB-40A9-A25B-6C6515036768}"/>
@@ -13362,28 +13362,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -13392,11 +13392,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -13410,11 +13410,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -13428,11 +13428,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -13446,11 +13446,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -13464,11 +13464,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -13482,11 +13482,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44475</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -13500,9 +13500,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -13766,13 +13766,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -13816,11 +13816,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -13833,128 +13833,128 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="55.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="47" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="84"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -13968,117 +13968,117 @@
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="47" t="s">
+      <c r="E31" s="59"/>
+      <c r="F31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="47" t="s">
+      <c r="L31" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A32" s="89"/>
-      <c r="B32" s="68"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="89"/>
-      <c r="B33" s="68"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="89"/>
-      <c r="B34" s="68"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="89"/>
-      <c r="B35" s="68"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="90"/>
-      <c r="B36" s="69"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:47" collapsed="1">
       <c r="A37" s="29"/>
@@ -22462,18 +22462,17 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
     <mergeCell ref="L24:L29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="A24:A29"/>
@@ -22486,17 +22485,18 @@
     <mergeCell ref="I24:I29"/>
     <mergeCell ref="J24:J29"/>
     <mergeCell ref="K24:K29"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H30:L30 H23:L23" xr:uid="{AA43D1D3-4E19-47CD-97D2-095B0CEAA30E}">
@@ -22527,8 +22527,8 @@
   </sheetPr>
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -22556,28 +22556,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -22586,11 +22586,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -22604,11 +22604,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -22622,11 +22622,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -22640,11 +22640,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -22658,11 +22658,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -22676,11 +22676,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -22694,9 +22694,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -22960,13 +22960,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -23010,11 +23010,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -23028,161 +23028,161 @@
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="48" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A24" s="91"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A25" s="91"/>
-      <c r="B25" s="66"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A26" s="91"/>
-      <c r="B26" s="66"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A27" s="91"/>
-      <c r="B27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="91"/>
-      <c r="B28" s="66"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A29" s="91"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A30" s="91"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="91"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -23194,85 +23194,85 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:12" s="28" customFormat="1" ht="52.2" customHeight="1" outlineLevel="1">
       <c r="A33" s="91"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-    </row>
-    <row r="34" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
       <c r="A34" s="91"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-    </row>
-    <row r="35" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+    </row>
+    <row r="35" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
       <c r="A35" s="91"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-    </row>
-    <row r="36" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+    </row>
+    <row r="36" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
       <c r="A36" s="91"/>
-      <c r="B36" s="66"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-    </row>
-    <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+    </row>
+    <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A37" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -23286,83 +23286,83 @@
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="52.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="91"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="91"/>
-      <c r="B40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="91"/>
-      <c r="B41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -23376,83 +23376,83 @@
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="54.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="91"/>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="91"/>
-      <c r="B44" s="66"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A45" s="91"/>
-      <c r="B45" s="66"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -23466,83 +23466,83 @@
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="56.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A48" s="91"/>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A49" s="91"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A50" s="91"/>
-      <c r="B50" s="66"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
     </row>
     <row r="51" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A51" s="91"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A52" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -23556,83 +23556,83 @@
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A53" s="91"/>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="91"/>
-      <c r="B54" s="66"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="91"/>
-      <c r="B55" s="66"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="91"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -23646,83 +23646,83 @@
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="91"/>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="78" t="s">
+      <c r="E58" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="91"/>
-      <c r="B59" s="66"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="91"/>
-      <c r="B60" s="66"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A61" s="91"/>
-      <c r="B61" s="66"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -23736,83 +23736,83 @@
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="51.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A63" s="91"/>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="78" t="s">
+      <c r="E63" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A64" s="91"/>
-      <c r="B64" s="66"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
     </row>
     <row r="65" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A65" s="91"/>
-      <c r="B65" s="66"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A66" s="91"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -23826,67 +23826,67 @@
     </row>
     <row r="68" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A68" s="91"/>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="E68" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A69" s="91"/>
-      <c r="B69" s="66"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A70" s="91"/>
-      <c r="B70" s="66"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A71" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="52"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -23900,51 +23900,51 @@
     </row>
     <row r="72" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A72" s="91"/>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="78" t="s">
+      <c r="E72" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="92"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
     </row>
     <row r="73" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A73" s="91"/>
-      <c r="B73" s="66"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="92"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A74" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="52"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -23958,83 +23958,83 @@
     </row>
     <row r="75" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A75" s="91"/>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="D75" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
     </row>
     <row r="76" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A76" s="91"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
     </row>
     <row r="77" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A77" s="91"/>
-      <c r="B77" s="66"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="57"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A78" s="91"/>
-      <c r="B78" s="66"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A79" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="52"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -24048,83 +24048,83 @@
     </row>
     <row r="80" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A80" s="91"/>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="74" t="s">
+      <c r="E80" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-      <c r="L80" s="63"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
     </row>
     <row r="81" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A81" s="91"/>
-      <c r="B81" s="66"/>
+      <c r="B81" s="68"/>
       <c r="C81" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="86"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A82" s="91"/>
-      <c r="B82" s="66"/>
+      <c r="B82" s="68"/>
       <c r="C82" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
     </row>
     <row r="83" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A83" s="91"/>
-      <c r="B83" s="66"/>
+      <c r="B83" s="68"/>
       <c r="C83" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A84" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -24138,83 +24138,83 @@
     </row>
     <row r="85" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A85" s="91"/>
-      <c r="B85" s="66" t="s">
+      <c r="B85" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E85" s="74" t="s">
+      <c r="E85" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
     </row>
     <row r="86" spans="1:12" s="28" customFormat="1" ht="40.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A86" s="91"/>
-      <c r="B86" s="66"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="86"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
     </row>
     <row r="87" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A87" s="91"/>
-      <c r="B87" s="66"/>
+      <c r="B87" s="68"/>
       <c r="C87" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="86"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A88" s="91"/>
-      <c r="B88" s="66"/>
+      <c r="B88" s="68"/>
       <c r="C88" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="87"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
     </row>
     <row r="89" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A89" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -24228,83 +24228,83 @@
     </row>
     <row r="90" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A90" s="91"/>
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="74" t="s">
+      <c r="E90" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
     </row>
     <row r="91" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A91" s="91"/>
-      <c r="B91" s="66"/>
+      <c r="B91" s="68"/>
       <c r="C91" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A92" s="91"/>
-      <c r="B92" s="66"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
     </row>
     <row r="93" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A93" s="91"/>
-      <c r="B93" s="66"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="67"/>
     </row>
     <row r="94" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A94" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="52"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -24318,73 +24318,73 @@
     </row>
     <row r="95" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A95" s="91"/>
-      <c r="B95" s="66" t="s">
+      <c r="B95" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="57" t="s">
+      <c r="D95" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="74" t="s">
+      <c r="E95" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-      <c r="L95" s="63"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
     </row>
     <row r="96" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A96" s="91"/>
-      <c r="B96" s="66"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D96" s="57"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="86"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
     </row>
     <row r="97" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A97" s="91"/>
-      <c r="B97" s="66"/>
+      <c r="B97" s="68"/>
       <c r="C97" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
     </row>
     <row r="98" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A98" s="91"/>
-      <c r="B98" s="66"/>
+      <c r="B98" s="68"/>
       <c r="C98" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D98" s="57"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="65"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
     </row>
     <row r="99" spans="1:12" collapsed="1">
       <c r="A99" s="29"/>
@@ -25929,45 +25929,134 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="191">
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="G24:G31"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="K24:K31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="L90:L93"/>
+    <mergeCell ref="J85:J88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="L85:L88"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A43:A46"/>
@@ -25992,134 +26081,45 @@
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="E33:E36"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="L90:L93"/>
-    <mergeCell ref="J85:J88"/>
-    <mergeCell ref="K85:K88"/>
-    <mergeCell ref="L85:L88"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="G24:G31"/>
+    <mergeCell ref="H24:H31"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H23:L23 H32:L32 H37:L37 H42:L42 H47:L47 H52:L52 H57:L57 H62:L62 H67:L67 H71:L71 H74:L74 H79:L79 H84:L84 H94:L94 H89:L89" xr:uid="{25E7D56F-E55F-490C-977E-B094924DEFD5}">
@@ -26179,28 +26179,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -26209,11 +26209,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -26227,11 +26227,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -26245,11 +26245,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -26263,11 +26263,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -26281,11 +26281,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -26299,11 +26299,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -26317,9 +26317,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -26583,13 +26583,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -26633,11 +26633,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -26650,82 +26650,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -26739,97 +26739,97 @@
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="91"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A29" s="91"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" s="41" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A30" s="91"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="91"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -26843,97 +26843,97 @@
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="91"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="91"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="91"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="91"/>
-      <c r="B36" s="66"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -26947,87 +26947,87 @@
     </row>
     <row r="38" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="59" t="s">
+      <c r="K38" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="91"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="91"/>
-      <c r="B40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="91"/>
-      <c r="B41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="1:47" collapsed="1">
       <c r="A42" s="29"/>
@@ -32569,29 +32569,26 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="59">
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
     <mergeCell ref="B37:D37"/>
@@ -32608,26 +32605,29 @@
     <mergeCell ref="L28:L31"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{40DC5E00-0134-4479-B5FD-2A46FD8B1D69}"/>
@@ -32687,28 +32687,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -32717,11 +32717,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -32735,11 +32735,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -32753,11 +32753,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -32771,11 +32771,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -32789,11 +32789,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -32807,11 +32807,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -32825,9 +32825,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -33091,13 +33091,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:47" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -33141,11 +33141,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -33158,72 +33158,72 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="28" customFormat="1" ht="68.400000000000006" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:47" collapsed="1">
       <c r="A27" s="29"/>
@@ -38765,21 +38765,6 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B2:G2"/>
@@ -38788,6 +38773,21 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="ACV23:ACY26 LWB23:LWE26 RXP23:RXS26 LMF23:LMI26 UYJ23:UYM26 LCJ23:LCM26 RNT23:RNW26 KSN23:KSQ26 WLT23:WLW26 KIR23:KIU26 RDX23:REA26 JYV23:JYY26 UON23:UOQ26 JOZ23:JPC26 QUB23:QUE26 JFD23:JFG26 SZ23:TC26 IVH23:IVK26 QKF23:QKI26 ILL23:ILO26 UER23:UEU26 IBP23:IBS26 QAJ23:QAM26 HRT23:HRW26 WBX23:WCA26 HHX23:HIA26 PQN23:PQQ26 GYB23:GYE26 TUV23:TUY26 GOF23:GOI26 PGR23:PGU26 GEJ23:GEM26 JD23:JG26 FUN23:FUQ26 OWV23:OWY26 FKR23:FKU26 TKZ23:TLC26 FAV23:FAY26 OMZ23:ONC26 EQZ23:ERC26 VSB23:VSE26 EHD23:EHG26 ODD23:ODG26 DXH23:DXK26 TBD23:TBG26 DNL23:DNO26 NTH23:NTK26 DDP23:DDS26 WVP23:WVS26 CTT23:CTW26 NJL23:NJO26 CJX23:CKA26 SRH23:SRK26 CAB23:CAE26 MZP23:MZS26 BQF23:BQI26 VIF23:VII26 BGJ23:BGM26 MPT23:MPW26 AWN23:AWQ26 SHL23:SHO26 AMR23:AMU26 MFX23:MGA26" xr:uid="{CCB740FA-7008-43D1-8068-42B30B7EFEDC}">
@@ -38847,28 +38847,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -38877,11 +38877,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -38895,11 +38895,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -38913,11 +38913,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -38931,11 +38931,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -38949,11 +38949,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -38967,11 +38967,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -38985,9 +38985,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -39251,13 +39251,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -39301,11 +39301,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -39318,82 +39318,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="93"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="93"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -39406,82 +39406,82 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="73" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="93"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="93"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -39494,72 +39494,72 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="72"/>
+      <c r="B32" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="73" t="s">
         <v>195</v>
       </c>
       <c r="E32" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="59" t="s">
+      <c r="K32" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="93"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="93"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:47" collapsed="1">
       <c r="A35" s="29"/>
@@ -44905,6 +44905,37 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="47">
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="B27:D27"/>
@@ -44921,37 +44952,6 @@
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{93BEBBD4-0097-477B-BCF1-8D36E0B05DA0}"/>
@@ -45011,28 +45011,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -45041,11 +45041,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -45059,11 +45059,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -45077,11 +45077,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -45095,11 +45095,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -45113,11 +45113,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -45131,11 +45131,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -45149,9 +45149,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -45415,13 +45415,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -45465,11 +45465,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -45482,112 +45482,112 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="59" t="s">
+      <c r="E24" s="94"/>
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A29" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -45600,178 +45600,178 @@
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="72"/>
+      <c r="B30" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="73" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="J30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="93"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="57"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="93"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="93"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="93"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="93"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="93"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="93"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="77"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="93"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A39" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -45784,128 +45784,128 @@
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="52" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="63" t="s">
+      <c r="E40" s="96"/>
+      <c r="F40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="63" t="s">
+      <c r="K40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="63" t="s">
+      <c r="L40" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
     </row>
     <row r="42" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="83"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="83"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="83"/>
-      <c r="B44" s="68"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="69"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A46" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -45918,178 +45918,178 @@
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="73" t="s">
         <v>212</v>
       </c>
       <c r="E47" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="59" t="s">
+      <c r="I47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="59" t="s">
+      <c r="J47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="59" t="s">
+      <c r="K47" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="59" t="s">
+      <c r="L47" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="66"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="93"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
     </row>
     <row r="49" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="93"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
     </row>
     <row r="50" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="93"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
     </row>
     <row r="51" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="77"/>
-      <c r="B51" s="66"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="57"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="93"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
     </row>
     <row r="52" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A52" s="77"/>
-      <c r="B52" s="66"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="57"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="93"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
     </row>
     <row r="53" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="66"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="57"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="93"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
     </row>
     <row r="54" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="77"/>
-      <c r="B54" s="66"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="57"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="93"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
     </row>
     <row r="55" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="77"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="57"/>
+      <c r="D55" s="73"/>
       <c r="E55" s="93"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
     </row>
     <row r="56" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A56" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="52"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -46102,118 +46102,118 @@
       <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A57" s="77"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="73" t="s">
         <v>215</v>
       </c>
       <c r="E57" s="93"/>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="59" t="s">
+      <c r="G57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="59" t="s">
+      <c r="H57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="59" t="s">
+      <c r="I57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="59" t="s">
+      <c r="J57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="59" t="s">
+      <c r="K57" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="59" t="s">
+      <c r="L57" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="77"/>
-      <c r="B58" s="66"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="93"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
     </row>
     <row r="59" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="77"/>
-      <c r="B59" s="66"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="93"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
     </row>
     <row r="60" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="66"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="57"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="93"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
     </row>
     <row r="61" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="66"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="57"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="93"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
     </row>
     <row r="62" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="57"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="93"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
     </row>
     <row r="63" spans="1:47" collapsed="1">
       <c r="A63" s="29"/>
@@ -50628,18 +50628,49 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="71">
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="L57:L62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="J57:J62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
     <mergeCell ref="K30:K38"/>
     <mergeCell ref="L30:L38"/>
     <mergeCell ref="B46:D46"/>
@@ -50656,49 +50687,18 @@
     <mergeCell ref="L47:L55"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="H30:H38"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J57:J62"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H46:L46 H56:L56 H39:L39" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
@@ -50729,7 +50729,7 @@
   </sheetPr>
   <dimension ref="A1:AU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -50758,28 +50758,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="86"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -50788,11 +50788,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -50806,11 +50806,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -50824,11 +50824,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -50842,11 +50842,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -50860,11 +50860,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -50878,11 +50878,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>44476</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -50896,9 +50896,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -51162,13 +51162,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -51212,11 +51212,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -51229,80 +51229,80 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="59" t="s">
+      <c r="E24" s="94"/>
+      <c r="F24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -51315,80 +51315,80 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="73" t="s">
         <v>238</v>
       </c>
       <c r="E28" s="93"/>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="93"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="93"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -51401,80 +51401,80 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="52" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="63" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="63" t="s">
+      <c r="L32" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="83"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A35" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -51487,80 +51487,80 @@
       <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="72"/>
+      <c r="B36" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="55" t="s">
         <v>245</v>
       </c>
       <c r="E36" s="93"/>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="59" t="s">
+      <c r="J36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="93"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="77"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="71"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="93"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -51573,80 +51573,80 @@
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="55" t="s">
         <v>250</v>
       </c>
       <c r="E40" s="93"/>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="59" t="s">
+      <c r="K40" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="93"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="66"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="93"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
     </row>
     <row r="43" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A43" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -51659,70 +51659,70 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="66" t="s">
+      <c r="A44" s="72"/>
+      <c r="B44" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="73" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="93"/>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="93"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
     </row>
     <row r="46" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="93"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
     </row>
     <row r="47" spans="1:47" collapsed="1">
       <c r="A47" s="29"/>
@@ -55941,21 +55941,58 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="83">
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="L36:L38"/>
@@ -55972,58 +56009,21 @@
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{C55D6BF4-ACFB-41C8-8231-F6F0CB6682AF}"/>

--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ECLIPSE-GIT\workspace\ZombieClothing_AUTE-IntelliJ-IDEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E2CED-8B94-4E0A-98EB-5735BDDFDF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B3828D-0B9A-43C3-965E-A5DD6D96F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
@@ -2217,6 +2217,21 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2225,6 +2240,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2235,17 +2259,38 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2277,41 +2322,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2325,35 +2337,23 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2373,9 +2373,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2387,6 +2384,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3344,28 +3344,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -3374,11 +3374,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3392,11 +3392,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3410,11 +3410,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3428,11 +3428,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -3446,11 +3446,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3464,11 +3464,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44475</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3482,9 +3482,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3748,13 +3748,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -3798,11 +3798,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -3815,68 +3815,68 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -3889,84 +3889,84 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="66" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -3979,98 +3979,98 @@
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="68" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="66" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4083,98 +4083,98 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="42" t="s">
+      <c r="J38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="53"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -4187,98 +4187,98 @@
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="49.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="45" t="s">
+      <c r="H43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="42" t="s">
+      <c r="L43" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="50"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -4291,98 +4291,98 @@
       <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="82"/>
+      <c r="B48" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="42" t="s">
+      <c r="K48" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="42" t="s">
+      <c r="L48" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A52" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -4395,98 +4395,98 @@
       <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="82"/>
+      <c r="B53" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="45" t="s">
+      <c r="H53" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="42" t="s">
+      <c r="J53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="42" t="s">
+      <c r="K53" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="42" t="s">
+      <c r="L53" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="53"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="50"/>
-      <c r="B55" s="53"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -4499,98 +4499,98 @@
       <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="49.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="52" t="s">
+      <c r="A58" s="82"/>
+      <c r="B58" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E58" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="42" t="s">
+      <c r="I58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="42" t="s">
+      <c r="J58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="42" t="s">
+      <c r="K58" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="42" t="s">
+      <c r="L58" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="50"/>
-      <c r="B60" s="53"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -4603,98 +4603,98 @@
       <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="82"/>
+      <c r="B63" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="E63" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="45" t="s">
+      <c r="H63" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="42" t="s">
+      <c r="I63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="42" t="s">
+      <c r="J63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="42" t="s">
+      <c r="K63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="42" t="s">
+      <c r="L63" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="53"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
     </row>
     <row r="65" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A65" s="50"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:47" s="28" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="54"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="64"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4707,88 +4707,88 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A68" s="49"/>
-      <c r="B68" s="52" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="45" t="s">
+      <c r="H68" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="42" t="s">
+      <c r="I68" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="42" t="s">
+      <c r="J68" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="42" t="s">
+      <c r="K68" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="42" t="s">
+      <c r="L68" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="50"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
     </row>
     <row r="70" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A70" s="50"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
     </row>
     <row r="71" spans="1:47" s="28" customFormat="1" ht="43.8" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
     </row>
     <row r="72" spans="1:47" collapsed="1">
       <c r="A72" s="29"/>
@@ -13172,15 +13172,104 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="131">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="K53:K56"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="G48:G51"/>
@@ -13205,104 +13294,15 @@
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="F48:F51"/>
     <mergeCell ref="I38:I41"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{060123B6-39FB-40A9-A25B-6C6515036768}"/>
@@ -13362,28 +13362,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -13392,11 +13392,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -13410,11 +13410,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -13428,11 +13428,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -13446,11 +13446,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -13464,11 +13464,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -13482,11 +13482,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44475</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -13500,9 +13500,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -13766,13 +13766,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -13816,11 +13816,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -13833,128 +13833,128 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="55.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="42" t="s">
+      <c r="E24" s="74"/>
+      <c r="F24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -13968,117 +13968,117 @@
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="74"/>
+      <c r="F31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A32" s="89"/>
-      <c r="B32" s="53"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="89"/>
-      <c r="B33" s="53"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="89"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="89"/>
-      <c r="B35" s="53"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="90"/>
-      <c r="B36" s="54"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
     </row>
     <row r="37" spans="1:47" collapsed="1">
       <c r="A37" s="29"/>
@@ -22462,17 +22462,18 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="L24:L29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="A24:A29"/>
@@ -22485,18 +22486,17 @@
     <mergeCell ref="I24:I29"/>
     <mergeCell ref="J24:J29"/>
     <mergeCell ref="K24:K29"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H30:L30 H23:L23" xr:uid="{AA43D1D3-4E19-47CD-97D2-095B0CEAA30E}">
@@ -22528,7 +22528,7 @@
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B36"/>
+      <selection activeCell="E48" sqref="E48:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -22556,28 +22556,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -22586,11 +22586,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -22604,11 +22604,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -22622,11 +22622,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -22640,11 +22640,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -22658,11 +22658,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -22676,11 +22676,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -22694,9 +22694,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -22960,13 +22960,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -23010,11 +23010,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -23028,161 +23028,161 @@
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="48" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A24" s="91"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A25" s="91"/>
-      <c r="B25" s="68"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A26" s="91"/>
-      <c r="B26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A27" s="91"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="91"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A29" s="91"/>
-      <c r="B29" s="68"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A30" s="91"/>
-      <c r="B30" s="68"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="25.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="91"/>
-      <c r="B31" s="68"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -23194,85 +23194,85 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" s="28" customFormat="1" ht="52.2" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="91"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-    </row>
-    <row r="34" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+    </row>
+    <row r="34" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="91"/>
-      <c r="B34" s="68"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-    </row>
-    <row r="35" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
+      <c r="D34" s="57"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+    </row>
+    <row r="35" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="91"/>
-      <c r="B35" s="68"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-    </row>
-    <row r="36" spans="1:12" s="28" customFormat="1" ht="25.2" customHeight="1" outlineLevel="1">
+      <c r="D35" s="57"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+    </row>
+    <row r="36" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="91"/>
-      <c r="B36" s="68"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-    </row>
-    <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="D36" s="57"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -23286,83 +23286,83 @@
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="52.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="91"/>
-      <c r="B39" s="68"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="91"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="91"/>
-      <c r="B41" s="68"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A42" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -23376,83 +23376,83 @@
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="54.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="91"/>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="91"/>
-      <c r="B44" s="68"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A45" s="91"/>
-      <c r="B45" s="68"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="68"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A47" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -23464,85 +23464,85 @@
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
     </row>
-    <row r="48" spans="1:12" s="28" customFormat="1" ht="56.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:12" s="28" customFormat="1" ht="56.4" customHeight="1" outlineLevel="1">
       <c r="A48" s="91"/>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-    </row>
-    <row r="49" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+    </row>
+    <row r="49" spans="1:12" s="28" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A49" s="91"/>
-      <c r="B49" s="68"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-    </row>
-    <row r="50" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D49" s="57"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+    </row>
+    <row r="50" spans="1:12" s="28" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A50" s="91"/>
-      <c r="B50" s="68"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-    </row>
-    <row r="51" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D50" s="57"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+    </row>
+    <row r="51" spans="1:12" s="28" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A51" s="91"/>
-      <c r="B51" s="68"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-    </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
+      <c r="D51" s="57"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A52" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -23556,83 +23556,83 @@
     </row>
     <row r="53" spans="1:12" s="28" customFormat="1" ht="50.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A53" s="91"/>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
     </row>
     <row r="54" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="91"/>
-      <c r="B54" s="68"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="91"/>
-      <c r="B55" s="68"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="73"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="91"/>
-      <c r="B56" s="68"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A57" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
@@ -23646,83 +23646,83 @@
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="52.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="91"/>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="91"/>
-      <c r="B59" s="68"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="91"/>
-      <c r="B60" s="68"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A61" s="91"/>
-      <c r="B61" s="68"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A62" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -23736,83 +23736,83 @@
     </row>
     <row r="63" spans="1:12" s="28" customFormat="1" ht="51.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A63" s="91"/>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
     </row>
     <row r="64" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A64" s="91"/>
-      <c r="B64" s="68"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
     </row>
     <row r="65" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A65" s="91"/>
-      <c r="B65" s="68"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
     </row>
     <row r="66" spans="1:12" s="28" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A66" s="91"/>
-      <c r="B66" s="68"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A67" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="64"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -23826,67 +23826,67 @@
     </row>
     <row r="68" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A68" s="91"/>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
     </row>
     <row r="69" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A69" s="91"/>
-      <c r="B69" s="68"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
     </row>
     <row r="70" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A70" s="91"/>
-      <c r="B70" s="68"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A71" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="64"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="31"/>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -23900,51 +23900,51 @@
     </row>
     <row r="72" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A72" s="91"/>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="92"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
     </row>
     <row r="73" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A73" s="91"/>
-      <c r="B73" s="68"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="73"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="92"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A74" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="64"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -23958,83 +23958,83 @@
     </row>
     <row r="75" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A75" s="91"/>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="59" t="s">
+      <c r="E75" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
     </row>
     <row r="76" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A76" s="91"/>
-      <c r="B76" s="68"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
     </row>
     <row r="77" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A77" s="91"/>
-      <c r="B77" s="68"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
     </row>
     <row r="78" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A78" s="91"/>
-      <c r="B78" s="68"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A79" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -24048,83 +24048,83 @@
     </row>
     <row r="80" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A80" s="91"/>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="73" t="s">
+      <c r="D80" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
     </row>
     <row r="81" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A81" s="91"/>
-      <c r="B81" s="68"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="73"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
     </row>
     <row r="82" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A82" s="91"/>
-      <c r="B82" s="68"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D82" s="73"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
     </row>
     <row r="83" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A83" s="91"/>
-      <c r="B83" s="68"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A84" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="64"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -24138,83 +24138,83 @@
     </row>
     <row r="85" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A85" s="91"/>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E85" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
     </row>
     <row r="86" spans="1:12" s="28" customFormat="1" ht="40.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A86" s="91"/>
-      <c r="B86" s="68"/>
+      <c r="B86" s="66"/>
       <c r="C86" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="73"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
     </row>
     <row r="87" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A87" s="91"/>
-      <c r="B87" s="68"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="73"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
     </row>
     <row r="88" spans="1:12" s="28" customFormat="1" ht="39.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A88" s="91"/>
-      <c r="B88" s="68"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="73"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
     </row>
     <row r="89" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A89" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="63"/>
-      <c r="D89" s="64"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -24228,83 +24228,83 @@
     </row>
     <row r="90" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A90" s="91"/>
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="73" t="s">
+      <c r="D90" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="59" t="s">
+      <c r="E90" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
     </row>
     <row r="91" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A91" s="91"/>
-      <c r="B91" s="68"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="73"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
     </row>
     <row r="92" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A92" s="91"/>
-      <c r="B92" s="68"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="73"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="66"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
     </row>
     <row r="93" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A93" s="91"/>
-      <c r="B93" s="68"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="73"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
     </row>
     <row r="94" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A94" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="64"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -24318,73 +24318,73 @@
     </row>
     <row r="95" spans="1:12" s="28" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A95" s="91"/>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="73" t="s">
+      <c r="D95" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="59" t="s">
+      <c r="E95" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
     </row>
     <row r="96" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A96" s="91"/>
-      <c r="B96" s="68"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D96" s="73"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="66"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
     </row>
     <row r="97" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A97" s="91"/>
-      <c r="B97" s="68"/>
+      <c r="B97" s="66"/>
       <c r="C97" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="73"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="66"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
     </row>
     <row r="98" spans="1:12" s="28" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A98" s="91"/>
-      <c r="B98" s="68"/>
+      <c r="B98" s="66"/>
       <c r="C98" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D98" s="73"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
     </row>
     <row r="99" spans="1:12" collapsed="1">
       <c r="A99" s="29"/>
@@ -25929,6 +25929,173 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="191">
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="G24:G31"/>
+    <mergeCell ref="H24:H31"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="L24:L31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="I85:I88"/>
     <mergeCell ref="J90:J93"/>
     <mergeCell ref="K90:K93"/>
     <mergeCell ref="L90:L93"/>
@@ -25953,173 +26120,6 @@
     <mergeCell ref="D90:D93"/>
     <mergeCell ref="E90:E93"/>
     <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="L24:L31"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="G24:G31"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="K24:K31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H23:L23 H32:L32 H37:L37 H42:L42 H47:L47 H52:L52 H57:L57 H62:L62 H67:L67 H71:L71 H74:L74 H79:L79 H84:L84 H94:L94 H89:L89" xr:uid="{25E7D56F-E55F-490C-977E-B094924DEFD5}">
@@ -26179,28 +26179,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -26209,11 +26209,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -26227,11 +26227,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -26245,11 +26245,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -26263,11 +26263,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -26281,11 +26281,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -26299,11 +26299,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -26317,9 +26317,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -26583,13 +26583,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -26633,11 +26633,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -26650,82 +26650,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -26739,97 +26739,97 @@
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="91"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="80" t="s">
+      <c r="L28" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A29" s="91"/>
-      <c r="B29" s="68"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
     </row>
     <row r="30" spans="1:12" s="41" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A30" s="91"/>
-      <c r="B30" s="68"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="91"/>
-      <c r="B31" s="68"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
     </row>
     <row r="32" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -26843,97 +26843,97 @@
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="91"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="G33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="80" t="s">
+      <c r="H33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="80" t="s">
+      <c r="J33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="80" t="s">
+      <c r="K33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="91"/>
-      <c r="B34" s="68"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="91"/>
-      <c r="B35" s="68"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="91"/>
-      <c r="B36" s="68"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
     </row>
     <row r="37" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -26947,87 +26947,87 @@
     </row>
     <row r="38" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="80" t="s">
+      <c r="F38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="80" t="s">
+      <c r="K38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="80" t="s">
+      <c r="L38" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="91"/>
-      <c r="B39" s="68"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
     </row>
     <row r="40" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="91"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
     </row>
     <row r="41" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="91"/>
-      <c r="B41" s="68"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:47" collapsed="1">
       <c r="A42" s="29"/>
@@ -32569,26 +32569,29 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="59">
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
     <mergeCell ref="B37:D37"/>
@@ -32605,29 +32608,26 @@
     <mergeCell ref="L28:L31"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{40DC5E00-0134-4479-B5FD-2A46FD8B1D69}"/>
@@ -32687,28 +32687,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -32717,11 +32717,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -32735,11 +32735,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -32753,11 +32753,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -32771,11 +32771,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -32789,11 +32789,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -32807,11 +32807,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -32825,9 +32825,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -33091,13 +33091,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:47" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -33141,11 +33141,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -33158,72 +33158,72 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="80" t="s">
+      <c r="K24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="28" customFormat="1" ht="68.400000000000006" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:47" collapsed="1">
       <c r="A27" s="29"/>
@@ -38765,6 +38765,21 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B2:G2"/>
@@ -38773,21 +38788,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="ACV23:ACY26 LWB23:LWE26 RXP23:RXS26 LMF23:LMI26 UYJ23:UYM26 LCJ23:LCM26 RNT23:RNW26 KSN23:KSQ26 WLT23:WLW26 KIR23:KIU26 RDX23:REA26 JYV23:JYY26 UON23:UOQ26 JOZ23:JPC26 QUB23:QUE26 JFD23:JFG26 SZ23:TC26 IVH23:IVK26 QKF23:QKI26 ILL23:ILO26 UER23:UEU26 IBP23:IBS26 QAJ23:QAM26 HRT23:HRW26 WBX23:WCA26 HHX23:HIA26 PQN23:PQQ26 GYB23:GYE26 TUV23:TUY26 GOF23:GOI26 PGR23:PGU26 GEJ23:GEM26 JD23:JG26 FUN23:FUQ26 OWV23:OWY26 FKR23:FKU26 TKZ23:TLC26 FAV23:FAY26 OMZ23:ONC26 EQZ23:ERC26 VSB23:VSE26 EHD23:EHG26 ODD23:ODG26 DXH23:DXK26 TBD23:TBG26 DNL23:DNO26 NTH23:NTK26 DDP23:DDS26 WVP23:WVS26 CTT23:CTW26 NJL23:NJO26 CJX23:CKA26 SRH23:SRK26 CAB23:CAE26 MZP23:MZS26 BQF23:BQI26 VIF23:VII26 BGJ23:BGM26 MPT23:MPW26 AWN23:AWQ26 SHL23:SHO26 AMR23:AMU26 MFX23:MGA26" xr:uid="{CCB740FA-7008-43D1-8068-42B30B7EFEDC}">
@@ -38847,28 +38847,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -38877,11 +38877,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -38895,11 +38895,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -38913,11 +38913,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -38931,11 +38931,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -38949,11 +38949,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -38967,11 +38967,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -38985,9 +38985,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -39251,13 +39251,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -39301,11 +39301,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -39318,82 +39318,82 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="80" t="s">
+      <c r="K24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="93"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="93"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -39406,82 +39406,82 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="57" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="80" t="s">
+      <c r="L28" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="93"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="93"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -39494,72 +39494,72 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="57" t="s">
         <v>195</v>
       </c>
       <c r="E32" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K32" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="80" t="s">
+      <c r="L32" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="93"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="93"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:47" collapsed="1">
       <c r="A35" s="29"/>
@@ -44905,37 +44905,6 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="47">
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="B27:D27"/>
@@ -44952,6 +44921,37 @@
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{93BEBBD4-0097-477B-BCF1-8D36E0B05DA0}"/>
@@ -45011,28 +45011,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -45041,11 +45041,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -45059,11 +45059,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -45077,11 +45077,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -45095,11 +45095,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -45113,11 +45113,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -45131,11 +45131,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -45149,9 +45149,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -45415,13 +45415,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -45465,11 +45465,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -45482,112 +45482,112 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="80" t="s">
+      <c r="E24" s="98"/>
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A29" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -45600,178 +45600,178 @@
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="68" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="57" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="L30" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="73"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="93"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="68"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="93"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="93"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="93"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="93"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="93"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="93"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="68"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="93"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A39" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -45784,128 +45784,128 @@
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="67" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="65" t="s">
+      <c r="E40" s="95"/>
+      <c r="F40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="65" t="s">
+      <c r="J40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="K40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="65" t="s">
+      <c r="L40" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="53"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="95"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A46" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -45918,178 +45918,178 @@
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="57" t="s">
         <v>212</v>
       </c>
       <c r="E47" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="80" t="s">
+      <c r="F47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="G47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="80" t="s">
+      <c r="H47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="80" t="s">
+      <c r="I47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="80" t="s">
+      <c r="J47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="80" t="s">
+      <c r="K47" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="80" t="s">
+      <c r="L47" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="28" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="93"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
     </row>
     <row r="49" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="93"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
     </row>
     <row r="50" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="93"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
     </row>
     <row r="51" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="72"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="93"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="68"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="73"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="93"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="72"/>
-      <c r="B53" s="68"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="73"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="93"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="73"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="93"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:47" s="28" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A55" s="72"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="73"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="93"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A56" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="64"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -46102,118 +46102,118 @@
       <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A57" s="72"/>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="77"/>
+      <c r="B57" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="57" t="s">
         <v>215</v>
       </c>
       <c r="E57" s="93"/>
-      <c r="F57" s="80" t="s">
+      <c r="F57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="80" t="s">
+      <c r="G57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="80" t="s">
+      <c r="H57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="80" t="s">
+      <c r="I57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="80" t="s">
+      <c r="J57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="80" t="s">
+      <c r="K57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="80" t="s">
+      <c r="L57" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="68"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="73"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="93"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="72"/>
-      <c r="B59" s="68"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="73"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="93"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
     </row>
     <row r="60" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="72"/>
-      <c r="B60" s="68"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="73"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="93"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
     </row>
     <row r="61" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="72"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="73"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="93"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
     </row>
     <row r="62" spans="1:47" s="28" customFormat="1" ht="44.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A62" s="72"/>
-      <c r="B62" s="68"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="73"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="93"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:47" collapsed="1">
       <c r="A63" s="29"/>
@@ -50628,27 +50628,40 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="71">
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="L30:L38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="E47:E55"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="H47:H55"/>
+    <mergeCell ref="I47:I55"/>
+    <mergeCell ref="J47:J55"/>
+    <mergeCell ref="K47:K55"/>
+    <mergeCell ref="L47:L55"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="L24:L28"/>
     <mergeCell ref="A30:A38"/>
@@ -50665,40 +50678,27 @@
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="J24:J28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="L30:L38"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="E47:E55"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="H47:H55"/>
-    <mergeCell ref="I47:I55"/>
-    <mergeCell ref="J47:J55"/>
-    <mergeCell ref="K47:K55"/>
-    <mergeCell ref="L47:L55"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="L57:L62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H46:L46 H56:L56 H39:L39" xr:uid="{4E16EDCF-1303-49A3-B4E2-32D5BBAC46DF}">
@@ -50758,28 +50758,28 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
       <c r="A2" s="6"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="6"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="M3" s="8"/>
@@ -50788,11 +50788,11 @@
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -50806,11 +50806,11 @@
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -50824,11 +50824,11 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -50842,11 +50842,11 @@
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -50860,11 +50860,11 @@
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -50878,11 +50878,11 @@
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>44476</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -50896,9 +50896,9 @@
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -51162,13 +51162,13 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
       <c r="A22" s="26" t="s">
@@ -51212,11 +51212,11 @@
       <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -51229,80 +51229,80 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="80" t="s">
+      <c r="E24" s="98"/>
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -51315,80 +51315,80 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="57" t="s">
         <v>238</v>
       </c>
       <c r="E28" s="93"/>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="80" t="s">
+      <c r="L28" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="93"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
     </row>
     <row r="30" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="93"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -51401,80 +51401,80 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="67" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="65" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A35" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -51487,80 +51487,80 @@
       <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="70" t="s">
         <v>245</v>
       </c>
       <c r="E36" s="93"/>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="80" t="s">
+      <c r="G36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="80" t="s">
+      <c r="I36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="80" t="s">
+      <c r="J36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="K36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="80" t="s">
+      <c r="L36" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="93"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="68"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="93"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
     </row>
     <row r="39" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -51573,80 +51573,80 @@
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="70" t="s">
         <v>250</v>
       </c>
       <c r="E40" s="93"/>
-      <c r="F40" s="80" t="s">
+      <c r="F40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="80" t="s">
+      <c r="G40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="80" t="s">
+      <c r="K40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="80" t="s">
+      <c r="L40" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="93"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="93"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
       <c r="A43" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -51659,70 +51659,70 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="72"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="66" t="s">
         <v>164</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="57" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="93"/>
-      <c r="F44" s="80" t="s">
+      <c r="F44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="80" t="s">
+      <c r="G44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="80" t="s">
+      <c r="H44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="80" t="s">
+      <c r="I44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="80" t="s">
+      <c r="J44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="80" t="s">
+      <c r="K44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="80" t="s">
+      <c r="L44" s="59" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="73"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="93"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="93"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
     </row>
     <row r="47" spans="1:47" collapsed="1">
       <c r="A47" s="29"/>
@@ -55941,58 +55941,21 @@
   </sheetData>
   <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="83">
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="L36:L38"/>
@@ -56009,21 +55972,58 @@
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:F34"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{C55D6BF4-ACFB-41C8-8231-F6F0CB6682AF}"/>

--- a/ZombieClothing Manual TCs_VinhTran.xlsx
+++ b/ZombieClothing Manual TCs_VinhTran.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ECLIPSE-GIT\workspace\ZombieClothing_AUTE-IntelliJ-IDEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B3828D-0B9A-43C3-965E-A5DD6D96F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F9267-9E63-43AD-B9E4-A69870D7BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" firstSheet="6" activeTab="7" xr2:uid="{D5A25300-DCC6-4734-BB7F-F53EA33C6D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Func- &lt;&lt;Log in&gt;&gt;" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="Func- &lt;&lt;Search pro by name&gt;&gt;" sheetId="10" r:id="rId6"/>
     <sheet name="Func- &lt;&lt;Add to cart&gt;&gt;" sheetId="12" r:id="rId7"/>
     <sheet name="Func- &lt;&lt;Sorting&gt;&gt;" sheetId="13" r:id="rId8"/>
+    <sheet name="Func- &lt;&lt;Payment&gt;&gt;" sheetId="14" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Func- &lt;&lt;Add to cart&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Func- &lt;&lt;Homepage nav&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Func- &lt;&lt;Log in&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Func- &lt;&lt;Log out&gt;&gt;'!$A$22:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Func- &lt;&lt;Payment&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Func- &lt;&lt;Search pro by name&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Func- &lt;&lt;Sign up&gt;&gt;'!$A$22:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Func- &lt;&lt;Sorting&gt;&gt;'!$A$22:$L$22</definedName>
@@ -837,8 +839,104 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vinh Pham Phu</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{3EDDF61C-031E-4B62-9DDC-12121CCA9F16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vinh Pham Phu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This result will be copied and pasted into Test Report file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{F77463CD-9B25-4A25-A24D-9D4C7C9FF55F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vinh Pham Phu: Passed in previous build</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{9AEFEFC1-AC76-4ED0-A420-5240A904FB6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vinh Pham Phu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Be reminded to Copy the last row and Insert Copied Cells when you want to add more build … it will keep the current formula.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{A60B355E-50B6-4DB4-84BE-0A1BF46449DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vinh Pham Phu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Be reminded to Copy the last coulmn build and Insert Copied Cells when you want to add more build … it will keep the current formula.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="278">
   <si>
     <t>Func - Module</t>
   </si>
@@ -1793,6 +1891,88 @@
 + Hiển thị thanh phân trang (paging controller)
 - Xem sản phẩm theo từ mới đến cũ thành công!</t>
   </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user thanh toán thành công khi input đầy đủ tất cả thông tin</t>
+  </si>
+  <si>
+    <t>2. Click chọn một sản phẩm bất kỳ trong 371 sản phẩm</t>
+  </si>
+  <si>
+    <t>3. Click vào button thanh toán</t>
+  </si>
+  <si>
+    <t>4. Input đầy đủ tất cả thông tin một cách hợp lệ vào các trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống navigate user vào trang thanh toán sản phẩm
+- Hệ thống hiển thị thông báo thanh toán thành công!
+- Thanh toán thành công!
+</t>
+  </si>
+  <si>
+    <t>5. Quan sát thông báo thanh toán thành công từ website</t>
+  </si>
+  <si>
+    <t>4. Input thiếu một trường thông tin bắt buộc</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user thanh toán không thành công khi input thiếu một trường thông tin bắt buộc</t>
+  </si>
+  <si>
+    <t>5. Quan sát thông báo lỗi từ website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống navigate user vào trang thanh toán sản phẩm
+- Hệ thống hiển thị thông báo lỗi ở cạnh trường bị thiếu!
+- Thanh toán không thành công!
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user thanh toán không thành công khi input thiếu nhiều hơn một trường thông tin bắt buộc</t>
+  </si>
+  <si>
+    <t>4. Input thiếu từ hai trường thông tin bắt buộc trở lên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống navigate user vào trang thanh toán sản phẩm
+- Hệ thống hiển thị thông báo lỗi ở cạnh các trường thông tin bị thiếu!
+- Thanh toán không thành công!
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra rằng user thanh toán không thành công khi input không hợp lệ vào các trường thông tin</t>
+  </si>
+  <si>
+    <t>4. Input giá trị không hợp lệ vào các trường thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hệ thống navigate user vào trang thanh toán sản phẩm
+- Hệ thống hiển thị thông báo lỗi ở cạnh các trường thông tin không hợp lệ!
+- Thanh toán không thành công!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Test script passed và các tên của sản phẩm được sắp xếp tăng dần từ A đến Z ở ký tự đầu của mỗi tên sản phẩm theo thứ tự bảng mã ASCII</t>
+  </si>
+  <si>
+    <t>Test script passed và các tên của sản phẩm được sắp xếp giảm dần từ Z đến A ở ký tự đầu của mỗi tên sản phẩm theo thứ tự bảng mã ASCII</t>
+  </si>
+  <si>
+    <t>Test case không thể thực thi vì hiện tại không có cơ sở nào để biết được sản phẩm nào là mới hay cũ và cũng như mức độ mới và cũ</t>
+  </si>
+  <si>
+    <t>Test script passed và các giá trị sản phẩm được sắp xếp tăng dần</t>
+  </si>
+  <si>
+    <t>Test script passed và các giá trị sản phẩm được sắp xếp giảm dần</t>
+  </si>
+  <si>
+    <t>Website đã bị bảo trì, test case/test script không thể thực thi</t>
+  </si>
 </sst>
 </file>
 
@@ -1929,7 +2109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,6 +2156,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2098,7 +2290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2387,6 +2579,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2992,6 +3193,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>938647</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ZOMBIE® OFFICIAL STORE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02488914-1077-41E5-8FBD-A779DF544A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200027" y="158969"/>
+          <a:ext cx="738620" cy="730148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -22527,7 +22801,7 @@
   </sheetPr>
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E48" sqref="E48:E51"/>
     </sheetView>
   </sheetViews>
@@ -50729,8 +51003,8 @@
   </sheetPr>
   <dimension ref="A1:AU132"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -51081,7 +51355,7 @@
       </c>
       <c r="B18" s="19">
         <f t="shared" ref="B18:G18" si="3">COUNTIF($H$23:$H$48459,B13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="19">
         <f t="shared" si="3"/>
@@ -51093,7 +51367,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="3"/>
@@ -51115,7 +51389,7 @@
       </c>
       <c r="B19" s="22">
         <f t="shared" ref="B19:G19" si="4">SUM(B14:B18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" si="4"/>
@@ -51127,7 +51401,7 @@
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
@@ -51220,15 +51494,15 @@
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="32" t="s">
-        <v>12</v>
+      <c r="H23" s="101" t="s">
+        <v>9</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A24" s="77"/>
       <c r="B24" s="66" t="s">
         <v>164</v>
@@ -51243,8 +51517,8 @@
       <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="59" t="s">
-        <v>28</v>
+      <c r="G24" s="99" t="s">
+        <v>275</v>
       </c>
       <c r="H24" s="63" t="s">
         <v>28</v>
@@ -51262,7 +51536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A25" s="77"/>
       <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
@@ -51271,14 +51545,14 @@
       <c r="D25" s="57"/>
       <c r="E25" s="98"/>
       <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="64"/>
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
     </row>
-    <row r="26" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A26" s="77"/>
       <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
@@ -51287,14 +51561,14 @@
       <c r="D26" s="57"/>
       <c r="E26" s="98"/>
       <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="64"/>
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
       <c r="L26" s="64"/>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="35" t="s">
         <v>85</v>
       </c>
@@ -51306,15 +51580,15 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="32" t="s">
-        <v>12</v>
+      <c r="H27" s="101" t="s">
+        <v>9</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A28" s="77"/>
       <c r="B28" s="66" t="s">
         <v>164</v>
@@ -51329,8 +51603,8 @@
       <c r="F28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="59" t="s">
-        <v>28</v>
+      <c r="G28" s="99" t="s">
+        <v>276</v>
       </c>
       <c r="H28" s="59" t="s">
         <v>28</v>
@@ -51348,7 +51622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A29" s="77"/>
       <c r="B29" s="66"/>
       <c r="C29" s="27" t="s">
@@ -51357,14 +51631,14 @@
       <c r="D29" s="57"/>
       <c r="E29" s="93"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
     </row>
-    <row r="30" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A30" s="77"/>
       <c r="B30" s="66"/>
       <c r="C30" s="27" t="s">
@@ -51373,14 +51647,14 @@
       <c r="D30" s="57"/>
       <c r="E30" s="93"/>
       <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="13.2">
       <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
@@ -51392,15 +51666,15 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="32" t="s">
-        <v>12</v>
+      <c r="H31" s="101" t="s">
+        <v>9</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A32" s="82"/>
       <c r="B32" s="67" t="s">
         <v>164</v>
@@ -51415,8 +51689,8 @@
       <c r="F32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="63" t="s">
-        <v>28</v>
+      <c r="G32" s="99" t="s">
+        <v>272</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>28</v>
@@ -51434,7 +51708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A33" s="83"/>
       <c r="B33" s="68"/>
       <c r="C33" s="27" t="s">
@@ -51443,14 +51717,14 @@
       <c r="D33" s="71"/>
       <c r="E33" s="96"/>
       <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64"/>
     </row>
-    <row r="34" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A34" s="83"/>
       <c r="B34" s="68"/>
       <c r="C34" s="27" t="s">
@@ -51459,14 +51733,14 @@
       <c r="D34" s="71"/>
       <c r="E34" s="96"/>
       <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="99"/>
       <c r="H34" s="64"/>
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
       <c r="L34" s="64"/>
     </row>
-    <row r="35" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="35" spans="1:47" s="12" customFormat="1" ht="13.2">
       <c r="A35" s="35" t="s">
         <v>87</v>
       </c>
@@ -51478,15 +51752,15 @@
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="32" t="s">
-        <v>12</v>
+      <c r="H35" s="101" t="s">
+        <v>9</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A36" s="77"/>
       <c r="B36" s="66" t="s">
         <v>164</v>
@@ -51501,8 +51775,8 @@
       <c r="F36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="59" t="s">
-        <v>28</v>
+      <c r="G36" s="99" t="s">
+        <v>273</v>
       </c>
       <c r="H36" s="59" t="s">
         <v>28</v>
@@ -51520,7 +51794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A37" s="77"/>
       <c r="B37" s="66"/>
       <c r="C37" s="27" t="s">
@@ -51529,14 +51803,14 @@
       <c r="D37" s="71"/>
       <c r="E37" s="93"/>
       <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
     </row>
-    <row r="38" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A38" s="77"/>
       <c r="B38" s="66"/>
       <c r="C38" s="27" t="s">
@@ -51545,14 +51819,14 @@
       <c r="D38" s="71"/>
       <c r="E38" s="93"/>
       <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
     </row>
-    <row r="39" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="39" spans="1:47" s="12" customFormat="1" ht="13.2">
       <c r="A39" s="35" t="s">
         <v>88</v>
       </c>
@@ -51564,7 +51838,7 @@
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="33"/>
@@ -51572,7 +51846,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A40" s="77"/>
       <c r="B40" s="66" t="s">
         <v>164</v>
@@ -51587,8 +51861,8 @@
       <c r="F40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="59" t="s">
-        <v>28</v>
+      <c r="G40" s="99" t="s">
+        <v>274</v>
       </c>
       <c r="H40" s="59" t="s">
         <v>28</v>
@@ -51606,7 +51880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A41" s="77"/>
       <c r="B41" s="66"/>
       <c r="C41" s="27" t="s">
@@ -51615,14 +51889,14 @@
       <c r="D41" s="71"/>
       <c r="E41" s="93"/>
       <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="G41" s="99"/>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
-    <row r="42" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A42" s="77"/>
       <c r="B42" s="66"/>
       <c r="C42" s="27" t="s">
@@ -51631,14 +51905,14 @@
       <c r="D42" s="71"/>
       <c r="E42" s="93"/>
       <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="G42" s="99"/>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
       <c r="L42" s="59"/>
     </row>
-    <row r="43" spans="1:47" s="12" customFormat="1" ht="13.2" collapsed="1">
+    <row r="43" spans="1:47" s="12" customFormat="1" ht="13.2">
       <c r="A43" s="35" t="s">
         <v>89</v>
       </c>
@@ -51650,7 +51924,7 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="100" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="33"/>
@@ -51658,7 +51932,7 @@
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="44" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A44" s="77"/>
       <c r="B44" s="66" t="s">
         <v>164</v>
@@ -51673,8 +51947,8 @@
       <c r="F44" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="59" t="s">
-        <v>28</v>
+      <c r="G44" s="99" t="s">
+        <v>274</v>
       </c>
       <c r="H44" s="59" t="s">
         <v>28</v>
@@ -51692,7 +51966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="45" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A45" s="77"/>
       <c r="B45" s="66"/>
       <c r="C45" s="27" t="s">
@@ -51701,14 +51975,14 @@
       <c r="D45" s="57"/>
       <c r="E45" s="93"/>
       <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="G45" s="99"/>
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
       <c r="J45" s="59"/>
       <c r="K45" s="59"/>
       <c r="L45" s="59"/>
     </row>
-    <row r="46" spans="1:47" s="28" customFormat="1" ht="62.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="46" spans="1:47" s="28" customFormat="1" ht="62.4" customHeight="1" outlineLevel="1">
       <c r="A46" s="77"/>
       <c r="B46" s="66"/>
       <c r="C46" s="27" t="s">
@@ -51717,14 +51991,14 @@
       <c r="D46" s="57"/>
       <c r="E46" s="93"/>
       <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="G46" s="99"/>
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
       <c r="L46" s="59"/>
     </row>
-    <row r="47" spans="1:47" collapsed="1">
+    <row r="47" spans="1:47">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -56045,4 +56319,4428 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296E2054-41E8-4813-B54F-6130452C7FCD}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:AU115"/>
+  <sheetViews>
+    <sheetView topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="34" style="30" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="16" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="30" customWidth="1"/>
+    <col min="9" max="11" width="12.88671875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="24.6">
+      <c r="A2" s="6"/>
+      <c r="B2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="22.8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="46">
+        <v>44476</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="26.4">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="18" t="str">
+        <f>L22</f>
+        <v>Build1</v>
+      </c>
+      <c r="B14" s="19">
+        <f>COUNTIF($L$23:$L$48442,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <f>COUNTIF($L$23:$L$48442,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <f>COUNTIF($L$23:$L$48442,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <f>COUNTIF($L$23:$L$48442,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <f>COUNTIF($L$23:$L$48442,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <f>COUNTIF($L$23:$L$48442,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="18" t="str">
+        <f>K22</f>
+        <v>Build2</v>
+      </c>
+      <c r="B15" s="19">
+        <f>COUNTIF($K$23:$K$48442,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <f>COUNTIF($K$23:$K$48442,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <f>COUNTIF($K$23:$K$48442,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f>COUNTIF($K$23:$K$48442,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <f>COUNTIF($K$23:$K$48442,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>COUNTIF($K$23:$K$48442,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="18" t="str">
+        <f>J22</f>
+        <v>Build3</v>
+      </c>
+      <c r="B16" s="19">
+        <f>COUNTIF($J$23:$J$48442,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <f>COUNTIF($J$23:$J$48442,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <f>COUNTIF($J$23:$J$48442,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <f>COUNTIF($J$23:$J$48442,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <f>COUNTIF($J$23:$J$48442,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>COUNTIF($J$23:$J$48442,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="18" t="str">
+        <f>I22</f>
+        <v>Build4</v>
+      </c>
+      <c r="B17" s="19">
+        <f>COUNTIF($I$23:$I$48442,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <f>COUNTIF($I$23:$I$48442,C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f>COUNTIF($I$23:$I$48442,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <f>COUNTIF($I$23:$I$48442,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f>COUNTIF($I$23:$I$48442,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <f>COUNTIF($I$23:$I$48442,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A18" s="18" t="str">
+        <f>H22</f>
+        <v>Build5</v>
+      </c>
+      <c r="B18" s="19">
+        <f>COUNTIF($H$23:$H$48442,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
+        <f>COUNTIF($H$23:$H$48442,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <f>COUNTIF($H$23:$H$48442,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <f>COUNTIF($H$23:$H$48442,E13)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="19">
+        <f>COUNTIF($H$23:$H$48442,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <f>COUNTIF($H$23:$H$48442,G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="22">
+        <f t="shared" ref="B19:G19" si="0">SUM(B14:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="11.4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="13.2">
+      <c r="A22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A25" s="77"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="13.2">
+      <c r="A29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A30" s="77"/>
+      <c r="B30" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="98"/>
+      <c r="F30" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A31" s="77"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A32" s="77"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A33" s="77"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A34" s="77"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:47" s="12" customFormat="1" ht="13.2">
+      <c r="A35" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A36" s="77"/>
+      <c r="B36" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="98"/>
+      <c r="F36" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A37" s="77"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="38" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A38" s="77"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+    </row>
+    <row r="39" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A39" s="77"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+    </row>
+    <row r="40" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A40" s="77"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+    </row>
+    <row r="41" spans="1:47" s="12" customFormat="1" ht="13.2">
+      <c r="A41" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A42" s="77"/>
+      <c r="B42" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A43" s="77"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+    </row>
+    <row r="44" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A44" s="77"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+    </row>
+    <row r="45" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A45" s="77"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+    </row>
+    <row r="46" spans="1:47" s="28" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29"/>
+      <c r="AU47" s="29"/>
+    </row>
+    <row r="48" spans="1:47">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="29"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="29"/>
+      <c r="AO48" s="29"/>
+      <c r="AP48" s="29"/>
+      <c r="AQ48" s="29"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="29"/>
+      <c r="AT48" s="29"/>
+      <c r="AU48" s="29"/>
+    </row>
+    <row r="49" spans="1:47">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+    </row>
+    <row r="50" spans="1:47">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29"/>
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="29"/>
+      <c r="AU50" s="29"/>
+    </row>
+    <row r="51" spans="1:47">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="29"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="29"/>
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="29"/>
+      <c r="AT51" s="29"/>
+      <c r="AU51" s="29"/>
+    </row>
+    <row r="52" spans="1:47">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="29"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="29"/>
+    </row>
+    <row r="53" spans="1:47">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="29"/>
+      <c r="AR53" s="29"/>
+      <c r="AS53" s="29"/>
+      <c r="AT53" s="29"/>
+      <c r="AU53" s="29"/>
+    </row>
+    <row r="54" spans="1:47">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="29"/>
+      <c r="AQ54" s="29"/>
+      <c r="AR54" s="29"/>
+      <c r="AS54" s="29"/>
+      <c r="AT54" s="29"/>
+      <c r="AU54" s="29"/>
+    </row>
+    <row r="55" spans="1:47">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
+      <c r="AR55" s="29"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="29"/>
+      <c r="AU55" s="29"/>
+    </row>
+    <row r="56" spans="1:47">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="29"/>
+      <c r="AM56" s="29"/>
+      <c r="AN56" s="29"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="29"/>
+      <c r="AQ56" s="29"/>
+      <c r="AR56" s="29"/>
+      <c r="AS56" s="29"/>
+      <c r="AT56" s="29"/>
+      <c r="AU56" s="29"/>
+    </row>
+    <row r="57" spans="1:47">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="29"/>
+      <c r="AM57" s="29"/>
+      <c r="AN57" s="29"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="29"/>
+      <c r="AQ57" s="29"/>
+      <c r="AR57" s="29"/>
+      <c r="AS57" s="29"/>
+      <c r="AT57" s="29"/>
+      <c r="AU57" s="29"/>
+    </row>
+    <row r="58" spans="1:47">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="29"/>
+      <c r="AL58" s="29"/>
+      <c r="AM58" s="29"/>
+      <c r="AN58" s="29"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="29"/>
+      <c r="AR58" s="29"/>
+      <c r="AS58" s="29"/>
+      <c r="AT58" s="29"/>
+      <c r="AU58" s="29"/>
+    </row>
+    <row r="59" spans="1:47">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29"/>
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="29"/>
+      <c r="AM59" s="29"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="29"/>
+      <c r="AQ59" s="29"/>
+      <c r="AR59" s="29"/>
+      <c r="AS59" s="29"/>
+      <c r="AT59" s="29"/>
+      <c r="AU59" s="29"/>
+    </row>
+    <row r="60" spans="1:47">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="29"/>
+      <c r="AH60" s="29"/>
+      <c r="AI60" s="29"/>
+      <c r="AJ60" s="29"/>
+      <c r="AK60" s="29"/>
+      <c r="AL60" s="29"/>
+      <c r="AM60" s="29"/>
+      <c r="AN60" s="29"/>
+      <c r="AO60" s="29"/>
+      <c r="AP60" s="29"/>
+      <c r="AQ60" s="29"/>
+      <c r="AR60" s="29"/>
+      <c r="AS60" s="29"/>
+      <c r="AT60" s="29"/>
+      <c r="AU60" s="29"/>
+    </row>
+    <row r="61" spans="1:47">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="29"/>
+      <c r="AH61" s="29"/>
+      <c r="AI61" s="29"/>
+      <c r="AJ61" s="29"/>
+      <c r="AK61" s="29"/>
+      <c r="AL61" s="29"/>
+      <c r="AM61" s="29"/>
+      <c r="AN61" s="29"/>
+      <c r="AO61" s="29"/>
+      <c r="AP61" s="29"/>
+      <c r="AQ61" s="29"/>
+      <c r="AR61" s="29"/>
+      <c r="AS61" s="29"/>
+      <c r="AT61" s="29"/>
+      <c r="AU61" s="29"/>
+    </row>
+    <row r="62" spans="1:47">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+      <c r="AF62" s="29"/>
+      <c r="AG62" s="29"/>
+      <c r="AH62" s="29"/>
+      <c r="AI62" s="29"/>
+      <c r="AJ62" s="29"/>
+      <c r="AK62" s="29"/>
+      <c r="AL62" s="29"/>
+      <c r="AM62" s="29"/>
+      <c r="AN62" s="29"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="29"/>
+      <c r="AQ62" s="29"/>
+      <c r="AR62" s="29"/>
+      <c r="AS62" s="29"/>
+      <c r="AT62" s="29"/>
+      <c r="AU62" s="29"/>
+    </row>
+    <row r="63" spans="1:47">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29"/>
+      <c r="AI63" s="29"/>
+      <c r="AJ63" s="29"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="29"/>
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="29"/>
+      <c r="AQ63" s="29"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="29"/>
+      <c r="AT63" s="29"/>
+      <c r="AU63" s="29"/>
+    </row>
+    <row r="64" spans="1:47">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="29"/>
+      <c r="AH64" s="29"/>
+      <c r="AI64" s="29"/>
+      <c r="AJ64" s="29"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="29"/>
+      <c r="AM64" s="29"/>
+      <c r="AN64" s="29"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="29"/>
+      <c r="AR64" s="29"/>
+      <c r="AS64" s="29"/>
+      <c r="AT64" s="29"/>
+      <c r="AU64" s="29"/>
+    </row>
+    <row r="65" spans="1:47">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
+      <c r="AH65" s="29"/>
+      <c r="AI65" s="29"/>
+      <c r="AJ65" s="29"/>
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="29"/>
+      <c r="AM65" s="29"/>
+      <c r="AN65" s="29"/>
+      <c r="AO65" s="29"/>
+      <c r="AP65" s="29"/>
+      <c r="AQ65" s="29"/>
+      <c r="AR65" s="29"/>
+      <c r="AS65" s="29"/>
+      <c r="AT65" s="29"/>
+      <c r="AU65" s="29"/>
+    </row>
+    <row r="66" spans="1:47">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="29"/>
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="29"/>
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="29"/>
+      <c r="AQ66" s="29"/>
+      <c r="AR66" s="29"/>
+      <c r="AS66" s="29"/>
+      <c r="AT66" s="29"/>
+      <c r="AU66" s="29"/>
+    </row>
+    <row r="67" spans="1:47">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="29"/>
+      <c r="AG67" s="29"/>
+      <c r="AH67" s="29"/>
+      <c r="AI67" s="29"/>
+      <c r="AJ67" s="29"/>
+      <c r="AK67" s="29"/>
+      <c r="AL67" s="29"/>
+      <c r="AM67" s="29"/>
+      <c r="AN67" s="29"/>
+      <c r="AO67" s="29"/>
+      <c r="AP67" s="29"/>
+      <c r="AQ67" s="29"/>
+      <c r="AR67" s="29"/>
+      <c r="AS67" s="29"/>
+      <c r="AT67" s="29"/>
+      <c r="AU67" s="29"/>
+    </row>
+    <row r="68" spans="1:47">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="29"/>
+      <c r="AH68" s="29"/>
+      <c r="AI68" s="29"/>
+      <c r="AJ68" s="29"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="29"/>
+      <c r="AM68" s="29"/>
+      <c r="AN68" s="29"/>
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="29"/>
+      <c r="AQ68" s="29"/>
+      <c r="AR68" s="29"/>
+      <c r="AS68" s="29"/>
+      <c r="AT68" s="29"/>
+      <c r="AU68" s="29"/>
+    </row>
+    <row r="69" spans="1:47">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="29"/>
+      <c r="AH69" s="29"/>
+      <c r="AI69" s="29"/>
+      <c r="AJ69" s="29"/>
+      <c r="AK69" s="29"/>
+      <c r="AL69" s="29"/>
+      <c r="AM69" s="29"/>
+      <c r="AN69" s="29"/>
+      <c r="AO69" s="29"/>
+      <c r="AP69" s="29"/>
+      <c r="AQ69" s="29"/>
+      <c r="AR69" s="29"/>
+      <c r="AS69" s="29"/>
+      <c r="AT69" s="29"/>
+      <c r="AU69" s="29"/>
+    </row>
+    <row r="70" spans="1:47">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="29"/>
+      <c r="AH70" s="29"/>
+      <c r="AI70" s="29"/>
+      <c r="AJ70" s="29"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="29"/>
+      <c r="AM70" s="29"/>
+      <c r="AN70" s="29"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="29"/>
+      <c r="AQ70" s="29"/>
+      <c r="AR70" s="29"/>
+      <c r="AS70" s="29"/>
+      <c r="AT70" s="29"/>
+      <c r="AU70" s="29"/>
+    </row>
+    <row r="71" spans="1:47">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="29"/>
+      <c r="AF71" s="29"/>
+      <c r="AG71" s="29"/>
+      <c r="AH71" s="29"/>
+      <c r="AI71" s="29"/>
+      <c r="AJ71" s="29"/>
+      <c r="AK71" s="29"/>
+      <c r="AL71" s="29"/>
+      <c r="AM71" s="29"/>
+      <c r="AN71" s="29"/>
+      <c r="AO71" s="29"/>
+      <c r="AP71" s="29"/>
+      <c r="AQ71" s="29"/>
+      <c r="AR71" s="29"/>
+      <c r="AS71" s="29"/>
+      <c r="AT71" s="29"/>
+      <c r="AU71" s="29"/>
+    </row>
+    <row r="72" spans="1:47">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="29"/>
+      <c r="AH72" s="29"/>
+      <c r="AI72" s="29"/>
+      <c r="AJ72" s="29"/>
+      <c r="AK72" s="29"/>
+      <c r="AL72" s="29"/>
+      <c r="AM72" s="29"/>
+      <c r="AN72" s="29"/>
+      <c r="AO72" s="29"/>
+      <c r="AP72" s="29"/>
+      <c r="AQ72" s="29"/>
+      <c r="AR72" s="29"/>
+      <c r="AS72" s="29"/>
+      <c r="AT72" s="29"/>
+      <c r="AU72" s="29"/>
+    </row>
+    <row r="73" spans="1:47">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="29"/>
+      <c r="AF73" s="29"/>
+      <c r="AG73" s="29"/>
+      <c r="AH73" s="29"/>
+      <c r="AI73" s="29"/>
+      <c r="AJ73" s="29"/>
+      <c r="AK73" s="29"/>
+      <c r="AL73" s="29"/>
+      <c r="AM73" s="29"/>
+      <c r="AN73" s="29"/>
+      <c r="AO73" s="29"/>
+      <c r="AP73" s="29"/>
+      <c r="AQ73" s="29"/>
+      <c r="AR73" s="29"/>
+      <c r="AS73" s="29"/>
+      <c r="AT73" s="29"/>
+      <c r="AU73" s="29"/>
+    </row>
+    <row r="74" spans="1:47">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="29"/>
+      <c r="AF74" s="29"/>
+      <c r="AG74" s="29"/>
+      <c r="AH74" s="29"/>
+      <c r="AI74" s="29"/>
+      <c r="AJ74" s="29"/>
+      <c r="AK74" s="29"/>
+      <c r="AL74" s="29"/>
+      <c r="AM74" s="29"/>
+      <c r="AN74" s="29"/>
+      <c r="AO74" s="29"/>
+      <c r="AP74" s="29"/>
+      <c r="AQ74" s="29"/>
+      <c r="AR74" s="29"/>
+      <c r="AS74" s="29"/>
+      <c r="AT74" s="29"/>
+      <c r="AU74" s="29"/>
+    </row>
+    <row r="75" spans="1:47">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="29"/>
+      <c r="AF75" s="29"/>
+      <c r="AG75" s="29"/>
+      <c r="AH75" s="29"/>
+      <c r="AI75" s="29"/>
+      <c r="AJ75" s="29"/>
+      <c r="AK75" s="29"/>
+      <c r="AL75" s="29"/>
+      <c r="AM75" s="29"/>
+      <c r="AN75" s="29"/>
+      <c r="AO75" s="29"/>
+      <c r="AP75" s="29"/>
+      <c r="AQ75" s="29"/>
+      <c r="AR75" s="29"/>
+      <c r="AS75" s="29"/>
+      <c r="AT75" s="29"/>
+      <c r="AU75" s="29"/>
+    </row>
+    <row r="76" spans="1:47">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="29"/>
+      <c r="AF76" s="29"/>
+      <c r="AG76" s="29"/>
+      <c r="AH76" s="29"/>
+      <c r="AI76" s="29"/>
+      <c r="AJ76" s="29"/>
+      <c r="AK76" s="29"/>
+      <c r="AL76" s="29"/>
+      <c r="AM76" s="29"/>
+      <c r="AN76" s="29"/>
+      <c r="AO76" s="29"/>
+      <c r="AP76" s="29"/>
+      <c r="AQ76" s="29"/>
+      <c r="AR76" s="29"/>
+      <c r="AS76" s="29"/>
+      <c r="AT76" s="29"/>
+      <c r="AU76" s="29"/>
+    </row>
+    <row r="77" spans="1:47">
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="29"/>
+      <c r="AF77" s="29"/>
+      <c r="AG77" s="29"/>
+      <c r="AH77" s="29"/>
+      <c r="AI77" s="29"/>
+      <c r="AJ77" s="29"/>
+      <c r="AK77" s="29"/>
+      <c r="AL77" s="29"/>
+      <c r="AM77" s="29"/>
+      <c r="AN77" s="29"/>
+      <c r="AO77" s="29"/>
+      <c r="AP77" s="29"/>
+      <c r="AQ77" s="29"/>
+      <c r="AR77" s="29"/>
+      <c r="AS77" s="29"/>
+      <c r="AT77" s="29"/>
+      <c r="AU77" s="29"/>
+    </row>
+    <row r="78" spans="1:47">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="29"/>
+      <c r="AH78" s="29"/>
+      <c r="AI78" s="29"/>
+      <c r="AJ78" s="29"/>
+      <c r="AK78" s="29"/>
+      <c r="AL78" s="29"/>
+      <c r="AM78" s="29"/>
+      <c r="AN78" s="29"/>
+      <c r="AO78" s="29"/>
+      <c r="AP78" s="29"/>
+      <c r="AQ78" s="29"/>
+      <c r="AR78" s="29"/>
+      <c r="AS78" s="29"/>
+      <c r="AT78" s="29"/>
+      <c r="AU78" s="29"/>
+    </row>
+    <row r="79" spans="1:47">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="29"/>
+      <c r="AI79" s="29"/>
+      <c r="AJ79" s="29"/>
+      <c r="AK79" s="29"/>
+      <c r="AL79" s="29"/>
+      <c r="AM79" s="29"/>
+      <c r="AN79" s="29"/>
+      <c r="AO79" s="29"/>
+      <c r="AP79" s="29"/>
+      <c r="AQ79" s="29"/>
+      <c r="AR79" s="29"/>
+      <c r="AS79" s="29"/>
+      <c r="AT79" s="29"/>
+      <c r="AU79" s="29"/>
+    </row>
+    <row r="80" spans="1:47">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
+      <c r="AE80" s="29"/>
+      <c r="AF80" s="29"/>
+      <c r="AG80" s="29"/>
+      <c r="AH80" s="29"/>
+      <c r="AI80" s="29"/>
+      <c r="AJ80" s="29"/>
+      <c r="AK80" s="29"/>
+      <c r="AL80" s="29"/>
+      <c r="AM80" s="29"/>
+      <c r="AN80" s="29"/>
+      <c r="AO80" s="29"/>
+      <c r="AP80" s="29"/>
+      <c r="AQ80" s="29"/>
+      <c r="AR80" s="29"/>
+      <c r="AS80" s="29"/>
+      <c r="AT80" s="29"/>
+      <c r="AU80" s="29"/>
+    </row>
+    <row r="81" spans="1:47">
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="29"/>
+      <c r="AG81" s="29"/>
+      <c r="AH81" s="29"/>
+      <c r="AI81" s="29"/>
+      <c r="AJ81" s="29"/>
+      <c r="AK81" s="29"/>
+      <c r="AL81" s="29"/>
+      <c r="AM81" s="29"/>
+      <c r="AN81" s="29"/>
+      <c r="AO81" s="29"/>
+      <c r="AP81" s="29"/>
+      <c r="AQ81" s="29"/>
+      <c r="AR81" s="29"/>
+      <c r="AS81" s="29"/>
+      <c r="AT81" s="29"/>
+      <c r="AU81" s="29"/>
+    </row>
+    <row r="82" spans="1:47">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="29"/>
+      <c r="AJ82" s="29"/>
+      <c r="AK82" s="29"/>
+      <c r="AL82" s="29"/>
+      <c r="AM82" s="29"/>
+      <c r="AN82" s="29"/>
+      <c r="AO82" s="29"/>
+      <c r="AP82" s="29"/>
+      <c r="AQ82" s="29"/>
+      <c r="AR82" s="29"/>
+      <c r="AS82" s="29"/>
+      <c r="AT82" s="29"/>
+      <c r="AU82" s="29"/>
+    </row>
+    <row r="83" spans="1:47">
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
+      <c r="AE83" s="29"/>
+      <c r="AF83" s="29"/>
+      <c r="AG83" s="29"/>
+      <c r="AH83" s="29"/>
+      <c r="AI83" s="29"/>
+      <c r="AJ83" s="29"/>
+      <c r="AK83" s="29"/>
+      <c r="AL83" s="29"/>
+      <c r="AM83" s="29"/>
+      <c r="AN83" s="29"/>
+      <c r="AO83" s="29"/>
+      <c r="AP83" s="29"/>
+      <c r="AQ83" s="29"/>
+      <c r="AR83" s="29"/>
+      <c r="AS83" s="29"/>
+      <c r="AT83" s="29"/>
+      <c r="AU83" s="29"/>
+    </row>
+    <row r="84" spans="1:47">
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29"/>
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29"/>
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="29"/>
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="29"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="29"/>
+      <c r="AQ84" s="29"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="29"/>
+      <c r="AU84" s="29"/>
+    </row>
+    <row r="85" spans="1:47">
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="29"/>
+      <c r="AM85" s="29"/>
+      <c r="AN85" s="29"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
+      <c r="AR85" s="29"/>
+      <c r="AS85" s="29"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+    </row>
+    <row r="86" spans="1:47">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="29"/>
+      <c r="AG86" s="29"/>
+      <c r="AH86" s="29"/>
+      <c r="AI86" s="29"/>
+      <c r="AJ86" s="29"/>
+      <c r="AK86" s="29"/>
+      <c r="AL86" s="29"/>
+      <c r="AM86" s="29"/>
+      <c r="AN86" s="29"/>
+      <c r="AO86" s="29"/>
+      <c r="AP86" s="29"/>
+      <c r="AQ86" s="29"/>
+      <c r="AR86" s="29"/>
+      <c r="AS86" s="29"/>
+      <c r="AT86" s="29"/>
+      <c r="AU86" s="29"/>
+    </row>
+    <row r="87" spans="1:47">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="29"/>
+      <c r="AG87" s="29"/>
+      <c r="AH87" s="29"/>
+      <c r="AI87" s="29"/>
+      <c r="AJ87" s="29"/>
+      <c r="AK87" s="29"/>
+      <c r="AL87" s="29"/>
+      <c r="AM87" s="29"/>
+      <c r="AN87" s="29"/>
+      <c r="AO87" s="29"/>
+      <c r="AP87" s="29"/>
+      <c r="AQ87" s="29"/>
+      <c r="AR87" s="29"/>
+      <c r="AS87" s="29"/>
+      <c r="AT87" s="29"/>
+      <c r="AU87" s="29"/>
+    </row>
+    <row r="88" spans="1:47">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
+      <c r="AE88" s="29"/>
+      <c r="AF88" s="29"/>
+      <c r="AG88" s="29"/>
+      <c r="AH88" s="29"/>
+      <c r="AI88" s="29"/>
+      <c r="AJ88" s="29"/>
+      <c r="AK88" s="29"/>
+      <c r="AL88" s="29"/>
+      <c r="AM88" s="29"/>
+      <c r="AN88" s="29"/>
+      <c r="AO88" s="29"/>
+      <c r="AP88" s="29"/>
+      <c r="AQ88" s="29"/>
+      <c r="AR88" s="29"/>
+      <c r="AS88" s="29"/>
+      <c r="AT88" s="29"/>
+      <c r="AU88" s="29"/>
+    </row>
+    <row r="89" spans="1:47">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+      <c r="AF89" s="29"/>
+      <c r="AG89" s="29"/>
+      <c r="AH89" s="29"/>
+      <c r="AI89" s="29"/>
+      <c r="AJ89" s="29"/>
+      <c r="AK89" s="29"/>
+      <c r="AL89" s="29"/>
+      <c r="AM89" s="29"/>
+      <c r="AN89" s="29"/>
+      <c r="AO89" s="29"/>
+      <c r="AP89" s="29"/>
+      <c r="AQ89" s="29"/>
+      <c r="AR89" s="29"/>
+      <c r="AS89" s="29"/>
+      <c r="AT89" s="29"/>
+      <c r="AU89" s="29"/>
+    </row>
+    <row r="90" spans="1:47">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29"/>
+      <c r="AI90" s="29"/>
+      <c r="AJ90" s="29"/>
+      <c r="AK90" s="29"/>
+      <c r="AL90" s="29"/>
+      <c r="AM90" s="29"/>
+      <c r="AN90" s="29"/>
+      <c r="AO90" s="29"/>
+      <c r="AP90" s="29"/>
+      <c r="AQ90" s="29"/>
+      <c r="AR90" s="29"/>
+      <c r="AS90" s="29"/>
+      <c r="AT90" s="29"/>
+      <c r="AU90" s="29"/>
+    </row>
+    <row r="91" spans="1:47">
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="29"/>
+      <c r="AH91" s="29"/>
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="29"/>
+      <c r="AM91" s="29"/>
+      <c r="AN91" s="29"/>
+      <c r="AO91" s="29"/>
+      <c r="AP91" s="29"/>
+      <c r="AQ91" s="29"/>
+      <c r="AR91" s="29"/>
+      <c r="AS91" s="29"/>
+      <c r="AT91" s="29"/>
+      <c r="AU91" s="29"/>
+    </row>
+    <row r="92" spans="1:47">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+      <c r="AF92" s="29"/>
+      <c r="AG92" s="29"/>
+      <c r="AH92" s="29"/>
+      <c r="AI92" s="29"/>
+      <c r="AJ92" s="29"/>
+      <c r="AK92" s="29"/>
+      <c r="AL92" s="29"/>
+      <c r="AM92" s="29"/>
+      <c r="AN92" s="29"/>
+      <c r="AO92" s="29"/>
+      <c r="AP92" s="29"/>
+      <c r="AQ92" s="29"/>
+      <c r="AR92" s="29"/>
+      <c r="AS92" s="29"/>
+      <c r="AT92" s="29"/>
+      <c r="AU92" s="29"/>
+    </row>
+    <row r="93" spans="1:47">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+      <c r="AF93" s="29"/>
+      <c r="AG93" s="29"/>
+      <c r="AH93" s="29"/>
+      <c r="AI93" s="29"/>
+      <c r="AJ93" s="29"/>
+      <c r="AK93" s="29"/>
+      <c r="AL93" s="29"/>
+      <c r="AM93" s="29"/>
+      <c r="AN93" s="29"/>
+      <c r="AO93" s="29"/>
+      <c r="AP93" s="29"/>
+      <c r="AQ93" s="29"/>
+      <c r="AR93" s="29"/>
+      <c r="AS93" s="29"/>
+      <c r="AT93" s="29"/>
+      <c r="AU93" s="29"/>
+    </row>
+    <row r="94" spans="1:47">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+    </row>
+    <row r="95" spans="1:47">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="29"/>
+      <c r="AF95" s="29"/>
+      <c r="AG95" s="29"/>
+      <c r="AH95" s="29"/>
+      <c r="AI95" s="29"/>
+      <c r="AJ95" s="29"/>
+      <c r="AK95" s="29"/>
+      <c r="AL95" s="29"/>
+      <c r="AM95" s="29"/>
+      <c r="AN95" s="29"/>
+      <c r="AO95" s="29"/>
+      <c r="AP95" s="29"/>
+      <c r="AQ95" s="29"/>
+      <c r="AR95" s="29"/>
+      <c r="AS95" s="29"/>
+      <c r="AT95" s="29"/>
+      <c r="AU95" s="29"/>
+    </row>
+    <row r="96" spans="1:47">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="29"/>
+      <c r="AE96" s="29"/>
+      <c r="AF96" s="29"/>
+      <c r="AG96" s="29"/>
+      <c r="AH96" s="29"/>
+      <c r="AI96" s="29"/>
+      <c r="AJ96" s="29"/>
+      <c r="AK96" s="29"/>
+      <c r="AL96" s="29"/>
+      <c r="AM96" s="29"/>
+      <c r="AN96" s="29"/>
+      <c r="AO96" s="29"/>
+      <c r="AP96" s="29"/>
+      <c r="AQ96" s="29"/>
+      <c r="AR96" s="29"/>
+      <c r="AS96" s="29"/>
+      <c r="AT96" s="29"/>
+      <c r="AU96" s="29"/>
+    </row>
+    <row r="97" spans="1:47">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="29"/>
+      <c r="AA97" s="29"/>
+      <c r="AB97" s="29"/>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="29"/>
+      <c r="AE97" s="29"/>
+      <c r="AF97" s="29"/>
+      <c r="AG97" s="29"/>
+      <c r="AH97" s="29"/>
+      <c r="AI97" s="29"/>
+      <c r="AJ97" s="29"/>
+      <c r="AK97" s="29"/>
+      <c r="AL97" s="29"/>
+      <c r="AM97" s="29"/>
+      <c r="AN97" s="29"/>
+      <c r="AO97" s="29"/>
+      <c r="AP97" s="29"/>
+      <c r="AQ97" s="29"/>
+      <c r="AR97" s="29"/>
+      <c r="AS97" s="29"/>
+      <c r="AT97" s="29"/>
+      <c r="AU97" s="29"/>
+    </row>
+    <row r="98" spans="1:47">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
+      <c r="AE98" s="29"/>
+      <c r="AF98" s="29"/>
+      <c r="AG98" s="29"/>
+      <c r="AH98" s="29"/>
+      <c r="AI98" s="29"/>
+      <c r="AJ98" s="29"/>
+      <c r="AK98" s="29"/>
+      <c r="AL98" s="29"/>
+      <c r="AM98" s="29"/>
+      <c r="AN98" s="29"/>
+      <c r="AO98" s="29"/>
+      <c r="AP98" s="29"/>
+      <c r="AQ98" s="29"/>
+      <c r="AR98" s="29"/>
+      <c r="AS98" s="29"/>
+      <c r="AT98" s="29"/>
+      <c r="AU98" s="29"/>
+    </row>
+    <row r="99" spans="1:47">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="29"/>
+      <c r="AE99" s="29"/>
+      <c r="AF99" s="29"/>
+      <c r="AG99" s="29"/>
+      <c r="AH99" s="29"/>
+      <c r="AI99" s="29"/>
+      <c r="AJ99" s="29"/>
+      <c r="AK99" s="29"/>
+      <c r="AL99" s="29"/>
+      <c r="AM99" s="29"/>
+      <c r="AN99" s="29"/>
+      <c r="AO99" s="29"/>
+      <c r="AP99" s="29"/>
+      <c r="AQ99" s="29"/>
+      <c r="AR99" s="29"/>
+      <c r="AS99" s="29"/>
+      <c r="AT99" s="29"/>
+      <c r="AU99" s="29"/>
+    </row>
+    <row r="100" spans="1:47">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="29"/>
+      <c r="AA100" s="29"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="29"/>
+      <c r="AE100" s="29"/>
+      <c r="AF100" s="29"/>
+      <c r="AG100" s="29"/>
+      <c r="AH100" s="29"/>
+      <c r="AI100" s="29"/>
+      <c r="AJ100" s="29"/>
+      <c r="AK100" s="29"/>
+      <c r="AL100" s="29"/>
+      <c r="AM100" s="29"/>
+      <c r="AN100" s="29"/>
+      <c r="AO100" s="29"/>
+      <c r="AP100" s="29"/>
+      <c r="AQ100" s="29"/>
+      <c r="AR100" s="29"/>
+      <c r="AS100" s="29"/>
+      <c r="AT100" s="29"/>
+      <c r="AU100" s="29"/>
+    </row>
+    <row r="101" spans="1:47">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+      <c r="Y101" s="29"/>
+      <c r="Z101" s="29"/>
+      <c r="AA101" s="29"/>
+      <c r="AB101" s="29"/>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="29"/>
+      <c r="AE101" s="29"/>
+      <c r="AF101" s="29"/>
+      <c r="AG101" s="29"/>
+      <c r="AH101" s="29"/>
+      <c r="AI101" s="29"/>
+      <c r="AJ101" s="29"/>
+      <c r="AK101" s="29"/>
+      <c r="AL101" s="29"/>
+      <c r="AM101" s="29"/>
+      <c r="AN101" s="29"/>
+      <c r="AO101" s="29"/>
+      <c r="AP101" s="29"/>
+      <c r="AQ101" s="29"/>
+      <c r="AR101" s="29"/>
+      <c r="AS101" s="29"/>
+      <c r="AT101" s="29"/>
+      <c r="AU101" s="29"/>
+    </row>
+    <row r="102" spans="1:47">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29"/>
+      <c r="AA102" s="29"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
+      <c r="AE102" s="29"/>
+      <c r="AF102" s="29"/>
+      <c r="AG102" s="29"/>
+      <c r="AH102" s="29"/>
+      <c r="AI102" s="29"/>
+      <c r="AJ102" s="29"/>
+      <c r="AK102" s="29"/>
+      <c r="AL102" s="29"/>
+      <c r="AM102" s="29"/>
+      <c r="AN102" s="29"/>
+      <c r="AO102" s="29"/>
+      <c r="AP102" s="29"/>
+      <c r="AQ102" s="29"/>
+      <c r="AR102" s="29"/>
+      <c r="AS102" s="29"/>
+      <c r="AT102" s="29"/>
+      <c r="AU102" s="29"/>
+    </row>
+    <row r="103" spans="1:47">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="29"/>
+      <c r="AI103" s="29"/>
+      <c r="AJ103" s="29"/>
+      <c r="AK103" s="29"/>
+      <c r="AL103" s="29"/>
+      <c r="AM103" s="29"/>
+      <c r="AN103" s="29"/>
+      <c r="AO103" s="29"/>
+      <c r="AP103" s="29"/>
+      <c r="AQ103" s="29"/>
+      <c r="AR103" s="29"/>
+      <c r="AS103" s="29"/>
+      <c r="AT103" s="29"/>
+      <c r="AU103" s="29"/>
+    </row>
+    <row r="104" spans="1:47">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="29"/>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="29"/>
+      <c r="AE104" s="29"/>
+      <c r="AF104" s="29"/>
+      <c r="AG104" s="29"/>
+      <c r="AH104" s="29"/>
+      <c r="AI104" s="29"/>
+      <c r="AJ104" s="29"/>
+      <c r="AK104" s="29"/>
+      <c r="AL104" s="29"/>
+      <c r="AM104" s="29"/>
+      <c r="AN104" s="29"/>
+      <c r="AO104" s="29"/>
+      <c r="AP104" s="29"/>
+      <c r="AQ104" s="29"/>
+      <c r="AR104" s="29"/>
+      <c r="AS104" s="29"/>
+      <c r="AT104" s="29"/>
+      <c r="AU104" s="29"/>
+    </row>
+    <row r="105" spans="1:47">
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29"/>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="29"/>
+      <c r="AE105" s="29"/>
+      <c r="AF105" s="29"/>
+      <c r="AG105" s="29"/>
+      <c r="AH105" s="29"/>
+      <c r="AI105" s="29"/>
+      <c r="AJ105" s="29"/>
+      <c r="AK105" s="29"/>
+      <c r="AL105" s="29"/>
+      <c r="AM105" s="29"/>
+      <c r="AN105" s="29"/>
+      <c r="AO105" s="29"/>
+      <c r="AP105" s="29"/>
+      <c r="AQ105" s="29"/>
+      <c r="AR105" s="29"/>
+      <c r="AS105" s="29"/>
+      <c r="AT105" s="29"/>
+      <c r="AU105" s="29"/>
+    </row>
+    <row r="106" spans="1:47">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
+      <c r="AE106" s="29"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="29"/>
+      <c r="AH106" s="29"/>
+      <c r="AI106" s="29"/>
+      <c r="AJ106" s="29"/>
+      <c r="AK106" s="29"/>
+      <c r="AL106" s="29"/>
+      <c r="AM106" s="29"/>
+      <c r="AN106" s="29"/>
+      <c r="AO106" s="29"/>
+      <c r="AP106" s="29"/>
+      <c r="AQ106" s="29"/>
+      <c r="AR106" s="29"/>
+      <c r="AS106" s="29"/>
+      <c r="AT106" s="29"/>
+      <c r="AU106" s="29"/>
+    </row>
+    <row r="107" spans="1:47">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="29"/>
+      <c r="AH107" s="29"/>
+      <c r="AI107" s="29"/>
+      <c r="AJ107" s="29"/>
+      <c r="AK107" s="29"/>
+      <c r="AL107" s="29"/>
+      <c r="AM107" s="29"/>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="29"/>
+      <c r="AQ107" s="29"/>
+      <c r="AR107" s="29"/>
+      <c r="AS107" s="29"/>
+      <c r="AT107" s="29"/>
+      <c r="AU107" s="29"/>
+    </row>
+    <row r="108" spans="1:47">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="29"/>
+      <c r="AG108" s="29"/>
+      <c r="AH108" s="29"/>
+      <c r="AI108" s="29"/>
+      <c r="AJ108" s="29"/>
+      <c r="AK108" s="29"/>
+      <c r="AL108" s="29"/>
+      <c r="AM108" s="29"/>
+      <c r="AN108" s="29"/>
+      <c r="AO108" s="29"/>
+      <c r="AP108" s="29"/>
+      <c r="AQ108" s="29"/>
+      <c r="AR108" s="29"/>
+      <c r="AS108" s="29"/>
+      <c r="AT108" s="29"/>
+      <c r="AU108" s="29"/>
+    </row>
+    <row r="109" spans="1:47">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="29"/>
+      <c r="AA109" s="29"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
+      <c r="AE109" s="29"/>
+      <c r="AF109" s="29"/>
+      <c r="AG109" s="29"/>
+      <c r="AH109" s="29"/>
+      <c r="AI109" s="29"/>
+      <c r="AJ109" s="29"/>
+      <c r="AK109" s="29"/>
+      <c r="AL109" s="29"/>
+      <c r="AM109" s="29"/>
+      <c r="AN109" s="29"/>
+      <c r="AO109" s="29"/>
+      <c r="AP109" s="29"/>
+      <c r="AQ109" s="29"/>
+      <c r="AR109" s="29"/>
+      <c r="AS109" s="29"/>
+      <c r="AT109" s="29"/>
+      <c r="AU109" s="29"/>
+    </row>
+    <row r="110" spans="1:47">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
+      <c r="AE110" s="29"/>
+      <c r="AF110" s="29"/>
+      <c r="AG110" s="29"/>
+      <c r="AH110" s="29"/>
+      <c r="AI110" s="29"/>
+      <c r="AJ110" s="29"/>
+      <c r="AK110" s="29"/>
+      <c r="AL110" s="29"/>
+      <c r="AM110" s="29"/>
+      <c r="AN110" s="29"/>
+      <c r="AO110" s="29"/>
+      <c r="AP110" s="29"/>
+      <c r="AQ110" s="29"/>
+      <c r="AR110" s="29"/>
+      <c r="AS110" s="29"/>
+      <c r="AT110" s="29"/>
+      <c r="AU110" s="29"/>
+    </row>
+    <row r="111" spans="1:47">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="29"/>
+      <c r="AA111" s="29"/>
+      <c r="AB111" s="29"/>
+      <c r="AC111" s="29"/>
+      <c r="AD111" s="29"/>
+      <c r="AE111" s="29"/>
+      <c r="AF111" s="29"/>
+      <c r="AG111" s="29"/>
+      <c r="AH111" s="29"/>
+      <c r="AI111" s="29"/>
+      <c r="AJ111" s="29"/>
+      <c r="AK111" s="29"/>
+      <c r="AL111" s="29"/>
+      <c r="AM111" s="29"/>
+      <c r="AN111" s="29"/>
+      <c r="AO111" s="29"/>
+      <c r="AP111" s="29"/>
+      <c r="AQ111" s="29"/>
+      <c r="AR111" s="29"/>
+      <c r="AS111" s="29"/>
+      <c r="AT111" s="29"/>
+      <c r="AU111" s="29"/>
+    </row>
+    <row r="112" spans="1:47">
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
+      <c r="AE112" s="29"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="29"/>
+      <c r="AH112" s="29"/>
+      <c r="AI112" s="29"/>
+      <c r="AJ112" s="29"/>
+      <c r="AK112" s="29"/>
+      <c r="AL112" s="29"/>
+      <c r="AM112" s="29"/>
+      <c r="AN112" s="29"/>
+      <c r="AO112" s="29"/>
+      <c r="AP112" s="29"/>
+      <c r="AQ112" s="29"/>
+      <c r="AR112" s="29"/>
+      <c r="AS112" s="29"/>
+      <c r="AT112" s="29"/>
+      <c r="AU112" s="29"/>
+    </row>
+    <row r="113" spans="1:47">
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
+      <c r="AE113" s="29"/>
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="29"/>
+      <c r="AH113" s="29"/>
+      <c r="AI113" s="29"/>
+      <c r="AJ113" s="29"/>
+      <c r="AK113" s="29"/>
+      <c r="AL113" s="29"/>
+      <c r="AM113" s="29"/>
+      <c r="AN113" s="29"/>
+      <c r="AO113" s="29"/>
+      <c r="AP113" s="29"/>
+      <c r="AQ113" s="29"/>
+      <c r="AR113" s="29"/>
+      <c r="AS113" s="29"/>
+      <c r="AT113" s="29"/>
+      <c r="AU113" s="29"/>
+    </row>
+    <row r="114" spans="1:47">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AA114" s="29"/>
+      <c r="AB114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="29"/>
+      <c r="AE114" s="29"/>
+      <c r="AF114" s="29"/>
+      <c r="AG114" s="29"/>
+      <c r="AH114" s="29"/>
+      <c r="AI114" s="29"/>
+      <c r="AJ114" s="29"/>
+      <c r="AK114" s="29"/>
+      <c r="AL114" s="29"/>
+      <c r="AM114" s="29"/>
+      <c r="AN114" s="29"/>
+      <c r="AO114" s="29"/>
+      <c r="AP114" s="29"/>
+      <c r="AQ114" s="29"/>
+      <c r="AR114" s="29"/>
+      <c r="AS114" s="29"/>
+      <c r="AT114" s="29"/>
+      <c r="AU114" s="29"/>
+    </row>
+    <row r="115" spans="1:47">
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="29"/>
+      <c r="U115" s="29"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
+      <c r="X115" s="29"/>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="29"/>
+      <c r="AA115" s="29"/>
+      <c r="AB115" s="29"/>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="29"/>
+      <c r="AE115" s="29"/>
+      <c r="AF115" s="29"/>
+      <c r="AG115" s="29"/>
+      <c r="AH115" s="29"/>
+      <c r="AI115" s="29"/>
+      <c r="AJ115" s="29"/>
+      <c r="AK115" s="29"/>
+      <c r="AL115" s="29"/>
+      <c r="AM115" s="29"/>
+      <c r="AN115" s="29"/>
+      <c r="AO115" s="29"/>
+      <c r="AP115" s="29"/>
+      <c r="AQ115" s="29"/>
+      <c r="AR115" s="29"/>
+      <c r="AS115" s="29"/>
+      <c r="AT115" s="29"/>
+      <c r="AU115" s="29"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A22:L22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <mergeCells count="59">
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="H23:L23 H29:L29 H35:L35 H41:L41" xr:uid="{11027F35-BA24-4885-9DF2-21DEDD3FBA8B}">
+      <formula1>$B$13:$G$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{1296A657-6786-4F76-9238-1D81241713A6}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="JE21:JG22 TA21:TC22 ACW21:ACY22 AMS21:AMU22 AWO21:AWQ22 BGK21:BGM22 BQG21:BQI22 CAC21:CAE22 CJY21:CKA22 CTU21:CTW22 DDQ21:DDS22 DNM21:DNO22 DXI21:DXK22 EHE21:EHG22 ERA21:ERC22 FAW21:FAY22 FKS21:FKU22 FUO21:FUQ22 GEK21:GEM22 GOG21:GOI22 GYC21:GYE22 HHY21:HIA22 HRU21:HRW22 IBQ21:IBS22 ILM21:ILO22 IVI21:IVK22 JFE21:JFG22 JPA21:JPC22 JYW21:JYY22 KIS21:KIU22 KSO21:KSQ22 LCK21:LCM22 LMG21:LMI22 LWC21:LWE22 MFY21:MGA22 MPU21:MPW22 MZQ21:MZS22 NJM21:NJO22 NTI21:NTK22 ODE21:ODG22 ONA21:ONC22 OWW21:OWY22 PGS21:PGU22 PQO21:PQQ22 QAK21:QAM22 QKG21:QKI22 QUC21:QUE22 RDY21:REA22 RNU21:RNW22 RXQ21:RXS22 SHM21:SHO22 SRI21:SRK22 TBE21:TBG22 TLA21:TLC22 TUW21:TUY22 UES21:UEU22 UOO21:UOQ22 UYK21:UYM22 VIG21:VII22 VSC21:VSE22 WBY21:WCA22 WLU21:WLW22 WVQ21:WVS22 H21 H22:L22" xr:uid="{2F104049-7000-489D-A4EB-8958D0966DB0}"/>
+    <dataValidation type="list" allowBlank="1" sqref="SHL23:SHO46 AWN23:AWQ46 MPT23:MPW46 BGJ23:BGM46 VIF23:VII46 BQF23:BQI46 MZP23:MZS46 CAB23:CAE46 SRH23:SRK46 CJX23:CKA46 NJL23:NJO46 CTT23:CTW46 WVP23:WVS46 DDP23:DDS46 NTH23:NTK46 DNL23:DNO46 TBD23:TBG46 DXH23:DXK46 ODD23:ODG46 EHD23:EHG46 VSB23:VSE46 EQZ23:ERC46 OMZ23:ONC46 FAV23:FAY46 TKZ23:TLC46 FKR23:FKU46 OWV23:OWY46 FUN23:FUQ46 JD23:JG46 GEJ23:GEM46 PGR23:PGU46 GOF23:GOI46 TUV23:TUY46 GYB23:GYE46 PQN23:PQQ46 HHX23:HIA46 WBX23:WCA46 HRT23:HRW46 QAJ23:QAM46 IBP23:IBS46 UER23:UEU46 ILL23:ILO46 QKF23:QKI46 IVH23:IVK46 SZ23:TC46 JFD23:JFG46 QUB23:QUE46 JOZ23:JPC46 UON23:UOQ46 JYV23:JYY46 RDX23:REA46 KIR23:KIU46 WLT23:WLW46 KSN23:KSQ46 RNT23:RNW46 LCJ23:LCM46 UYJ23:UYM46 LMF23:LMI46 RXP23:RXS46 LWB23:LWE46 ACV23:ACY46 MFX23:MGA46 AMR23:AMU46" xr:uid="{B07DEDAF-3B8E-4D71-B47F-53078ECC5E5D}">
+      <formula1>$A$14:$A$19</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A23 A29 A35 A41" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>